--- a/JobDetails.xlsx
+++ b/JobDetails.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rekha\selenium-ws\Indeedjobscrappingproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A984E-B348-4C8D-8439-01811B3AFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082F37B-9FDA-47FA-8B30-AEFB03922E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="720" windowWidth="18750" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rest Assured" sheetId="1" r:id="rId1"/>
+    <sheet name="Postman" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
   <si>
     <t>Job Category</t>
   </si>
@@ -46,362 +46,1654 @@
     <t>Job Description</t>
   </si>
   <si>
-    <t>Rest Assured jobs in Remote</t>
-  </si>
-  <si>
-    <t>Senior Staff Quality Engineer</t>
+    <t>Postman jobs in Remote</t>
+  </si>
+  <si>
+    <t>Software Developer Lead (Quality Engineering) REMOTE</t>
+  </si>
+  <si>
+    <t>PNC Financial Services Group</t>
+  </si>
+  <si>
+    <t>Remote in Pittsburgh, PA 15222</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AMofH_6zXbiqn6xehDj89HQNfpf30LHk40Y3Yl5cZTpq4DbiMVvKbG8I72htC_pBVJobgS13NNsPvMUH4YRKZvvNxGSyBDmtI-hNUxUsEYIStnPrlpjbBskpq3IUutdYeHKUa2MkBHxOilEAEpBPboBTKbJtilMzFs9ZeW9vzaKYWaJhjYb8TMejWozRK-IJ439f7-aSigjLWpfEd867SiVPhEfmiT0EaYK7ELlG2XeuEIVcJC-aBYlgTE0hkbP-lvdKCJEgytRoN0N-D3kGz2L_4oBz6C7u7xcSVe4qLEUQpYiZQV4oSwst8U5Q-Hvm3mBeOHIeDUEOH_xgGzpdxb6Jhf4Img2gAssNPjM9gn6gkbjvx5H4s0FWYQfB0Zep4czogwJfVnITFuf6T9RxkB1flrnf1r_mD9iCyA7U_MbhAZabiL2YTOWffkPaeAbKxL59EwJggTXFFEHdAG1a9iptj2NsY3GG7Vzl_RhZAya_7dPjSMWLzcADdFmABNNxwct3o5GCvjiILKLIsztWE4lEEgY4Y0QrS-zsV0X5UGtqGAJPOt1ir-ARWv-Hb0m8xpkl1chEuS1knPjmNGMyCg8TelpISRAiQgYQU_I7-sZHl-slx3O6ypXO--JZhbJy9lZDSfO57ytqMx9fE9PNiNhFJOmTf_ym1h1fD8B-PEZeWvF0uiu3SvEsd70ULLniUuvuLPjsD_SS9-tYN2fj3xmkuAJLeX5xrlCmw5PK21EYIci4LAq1pekYDsYZeNpjd8Q54eOXmwsaZnipOO9qGSIsOagLoPpXcCfzO8H9ISZMM3pdlxvL5duuOZef-Uw9P6AKbbBrIIwwQWJGVMoGP0r8rzINqVCEL1FLfLq-sdgRVi6dVjaeYTyVTnWMTSbWRn-aL3aNgB12Y0q4ZP2TjPE-wKDap3DtnNMGoTOmWcbFPilk9oUbD3vDX1tEED5BTZDI6Hg-Tls8SxBKKgNJ_aeuJaxUpaJOEV2Ys9yK8aiyer4KUF9eX94PQlEJmEI2Spc7nE3cccQ-uQta8mH_MUxfMB6dza-L0hWiWJM7ZfdytgP66bJ78B3YfiTvu7kE4frvIPQ_seyHKB5Y78J-xGqbiJnJtjwfin9kFSw5c2CCUwVh_IMBBETTxNyy-svWeOSUWgW5lCh4cqiQHWGdLAidrtoJdU9p_rY7oHtbuUatbYB2ztC0ENSvRZKG2E8SlYXTUJhAuauy9BpX96V8Vx9Zlq05wvxQnVgnjzWDPmhfKarTnsPStt&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:10</t>
+  </si>
+  <si>
+    <t>Job Profile
+Position Overview
+At PNC, our people are our greatest differentiator and competitive advantage in the markets we serve. We are all united in delivering the best experience for our customers. We work together each day to foster an inclusive workplace culture where all of our employees feel respected, valued and have an opportunity to contribute to the company’s success.
+As a Lead Developer (Quality Engineering) within PNC's C&amp;IB Midland organization, this is a remote position and can sit anywhere within the PNC footprint, except for Colorado, Hawaii or Alaska. There is limited expectation for regular in person, in office activities.
+Responsibilities:
+Moving to automate engineering - test automation. This person will work with central group - engineer tools and testing.
+They will drive quality engineering – influence quality practice and standards.
+Mentor other Quality Engineers on the teams.
+Develop functional and non-functional test automation for the business. Performance testing is a plus.
+Research what needs to happen. Take initiative to come up with better solutions to automate that solution.
+Following skills are preferred:
+.NET/full stack
+ADO
+SDET
+Automation testing tools (including one or more of the following -Selenium, test complete, UFT, API testing, Postman)
+Database validation experience – SQL queries
+Self-starter
+Self-motivate
+Strong written and verbal communication skills
+Job Description
+Creates and leads the technical design and development of software solutions.
+Proposes &amp; designs software solutions to address complex business needs. Prepares technical and procedural documentation required.
+Facilitates complex problem resolution.
+Provides technical guidance and support to colleagues. Reviews coding, testing, and documentation of software.
+Applies modern principles, methodologies and tools to advance business initiatives and capabilities.
+PNC Employees take pride in our reputation and to continue building upon that we expect our employees to be:
+Customer Focused - Knowledgeable of the values and practices that align customer needs and satisfaction as primary considerations in all business decisions and able to leverage that information in creating customized customer solutions.
+Managing Risk - Assessing and effectively managing all of the risks associated with their business objectives and activities to ensure they adhere to and support PNC's Enterprise Risk Management Framework.
+Competencies
+Application Delivery Process – Knowledge of major tasks, deliverables, and formal application delivery methodologies; ability to utilize these in order to deliver new or enhanced applications.
+Application Design, Architecture – Knowledge of application design activities, tools and techniques; ability to utilize these to convert business requirements and logical models into a technical application design.
+Application Development Tools – Knowledge of and ability to utilize a variety of specific tools and toolkits for the development and support of applications.
+Application Testing – Knowledge of application testing and ability to design, plan and execute application testing strategies and tactics to ensure software quality throughout all stages of application development.
+Packaged Application Integration – Knowledge of and the ability to implement packaged application software and integrate it with company applications, databases and technology platforms.
+System Development Life Cycle – Knowledge of project management techniques and the ability to plan, design, develop, test, implement and maintain system development life cycle segments and phases.
+Technical Troubleshooting – Knowledge of technical troubleshooting approaches, tools and techniques, and the ability to anticipate, recognize, and resolve technical (hardware, software, application or operational) problems.
+Work Experience
+Roles at this level typically require a university / college degree, with 3+ years of relevant / direct industry experience. Certifications are often desired. In lieu of a degree, a comparable combination of education and experience (including military service) may be considered.
+Education
+Bachelors
+Additional Job Description
+Base Salary: Commensurate with skills and experience.
+Benefits
+PNC offers employees a comprehensive range of benefits to help meet your needs now and in the future. Depending on your eligibility, options for full-time employees include medical/prescription drug coverage (with a Health Savings Account feature); dental and vision options; employee and spouse/child life insurance; short- and long-term disability protection; maternity and parental leave; paid holidays, vacation days and occasional absence time; 401(k), pension and stock purchase plans; dependent care reimbursement account; back-up child/elder care; adoption assistance; educational assistance and a robust wellness program with financial incentives. To learn more about these and other programs, including benefits for part-time employees, visit pncbenefits.com &gt; New to PNC .
+Disability Accommodations Statement:
+The PNC workplace is inclusive and supportive of individual needs. If you have a physical or other impairment that might require an accommodation, including technical assistance with the PNC Careers website or submission process, please call 877-968-7762 and select Option 4: Recruiting or contact us via email at pathfinder@pnc.com.
+The Human Resources Service Center hours of operation are Monday - Friday 9:00 AM to 5:00 PM ET.
+Equal Employment Opportunity (EEO):
+PNC provides equal employment opportunity to qualified persons regardless of race, color, sex, religion, national origin, age, sexual orientation, gender identity, disability, veteran status, or other categories protected by law.
+California Residents
+Refer to the California Consumer Privacy Act Privacy Notice to gain understanding of how PNC may use or disclose your personal information in our hiring practices.</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>Atrium Staffing</t>
+  </si>
+  <si>
+    <t>Remote in Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AJVhJRw9wUHBCF8R8adMoLXwMaKLwknIknnYTuOdK23ByS62K0QyKddDQSW_ihBixnvyDTvytH-0reUm-1xjxJwEHmaBelAED-gGx7HGWnkNTKIz3Jw5nX6foFYUywGK4xBu9aa8STR7ZxKpAKv7LvGtu9SbhJiZIxDXIpIHmSARbmyr1DE9nAnBRyGMP4u-FPieuWGg-QO0Vu62cvyR86By7iGF4k0-zoS_eyngGb8Ce1yFOjnrJVi7A-gYfHCK7qbqDLs32nFtF0NvtkUQPfO4S8ufescU8zRnUAWIFgj7joZoLmNSYRRhy_3Ct9FtsA0hHdGA2p6dsPJPUhuF-UqOyhIG3DjxSD76jXXe0gNW5NaNh0X7k5Oqg00OYSqDn4FHWBsMMJZy1GQ0994JxQc2zxpDlVwTqTdZAMYJpjB0J-bV47K2vFzWAvnRIkJO_XG48g0FH7wbGNHrDLeAMhfs5AxrvgWTM5ubQOVZsxhgF-64WRH6uiRFPAlVw4tQh1JrK1G9SKi8GHwPEuFR69Fd73SqmMyoLiQZ2y0pGwV4kYzGC5rSIek2J_eI77tVxmhWWabYmtxin6bhO-oLd2MkGjN57swRrfmCQyK8EymUonFfRyfsf8-c34Es7WnWySWrdg_qGcnvuEGxn2VL6bc2PHc9il_iXM2OhJ3Lo9l1IYefVs3gi2mPRw9hnU_JIPZ1_H65GwNbOSQ30eaqlGfntTT7Y0NTD85Jr1N6rbyoBZNOkqKtn9Rp4Ur0cHriKIMWdCUWOl1Y_gwGUq23HBvvv8YuB6hYV9uc9w18u_TEUyQ8FpjXErxKo9wMv8vF_wKqMKvzPKMxUMqLhFiN_siWrAQ-3ip-LZKrx7uJjPVhKGN1Ji0gSQ57F-j_ZCgIAMCxo8P_saEmoNzNemeJFxDDXw-dZVJJdOG5sPE_0Vuq3OFf1yS7uVjm_GXDKA6_3pQrUgemSx99IHmNo3GFaK82WqbyYtVWWdMr49rye9SQ==&amp;p=1&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Posted
+Today</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:11</t>
+  </si>
+  <si>
+    <t>Our client is a fast-growing media and ecommerce consulting solutions company and is currently looking for a Senior Software Engineer to join their team.
+Salary/Hourly Rate:
+Dependent on experience
+Position Overview:
+The company and position will focus on providing ecommerce solutions to external clients &amp; brands to the forefront of digital commerce, employing data and platform intelligence &amp; machine learning. They are actively seeking a Senior Software Engineer for their team that can work 100% remote that will contribute to design sessions and help architect future product features, write technical design from spec docs.
+Responsibilities of the Senior Software Engineer:
+Writing Python based server and RESTful endpoints code required to build data pipelines, machine learning pipelines, and multiple dataset pipelines
+Building a Python-based, dynamically adjustable website scrapper; including both web and mobile data
+Writing SQL and know how to do CRUD operation on MySQL database
+Competency designing, editing, and iterating using MySQL and Redis databases
+Qualifications of the Senior Software Engineer:
+At least 4 plus years of working experience with Python, Flask, SQL, Redis, PyTestSome experience in Javascript framework with React would be a big plus
+Experience in using Python, both in writing script style code and OOP style code
+Know how Flask server work and can create RESTful endpoints, experience in Redis or other in-memory caching technology a plus
+Know how to write SQL and know how to do CRUD operation on MySQL database
+React, Material-UI, Redux, Javascript, and CSS/HTML experience a plus but not required
+Software Design, GitHub, Postman, Visual Studio Code, JIRA, SQL databases, and database architecture a plus but not required
+Education Requirements:
+Bachelor’s degree in a related field is preferred
+Benefits:
+Atrium Care Package available, upon eligibility
+The post Senior Software Engineer appeared first on Atrium.</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer</t>
+  </si>
+  <si>
+    <t>Sertifi</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=1d6b18790b7b176d&amp;fccid=7dc43a13b3566aae&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Posted
+Just posted</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:13</t>
+  </si>
+  <si>
+    <t>Sertifi offers an Agreement Platform built for businesses who need a more efficient and secure way to manage the full contract process. We simplify how businesses send and collect agreements and payments by bringing it all into one secure platform. Sertifi automates business processes, saves you time from performing repetitive tasks, enhances security and PCI-compliance, and provides customers an easy and convenient way to do business with your company. Thousands of businesses around the world use Sertifi to streamline their contracts and payment processes, recognize revenue faster, and increase job efficiency.
+We are looking for a talented, experienced Technical Support Engineer to join our growing Engineering team. This role works closely between our Customer Success, Product, Engineering, DevOps, and Quality Assurance teams to provide support for our Sertifi Agreement Platform (large-scale SaaS web application).
+Our ideal candidate is expected to investigate customer issues to figure out why something isn’t working as designed and collaborate with internal teams to find solutions.
+This position reports to our Director of Engineering, and will also work closely with our Support Lead.
+Challenges You’ll Tackle:
+Work with cross-functional Engineering and Customer Support teams to investigate and resolve issues in an ASP.NET based web application.
+Build internal applications to assist with recurring tasks such as usage reporting, large scale customer set-up for new features, or finding issues with third party services.
+As a self-starter you will need the ability to write SQL queries for data requests and for general issue investigation daily along with an aptitude to search and analyze logs to investigate the origins of issues.
+Maintain existing documentation and create new internal documentation for new processes or issue resolutions.
+Collaborate with Development, Customer Success, Product, and Quality Assurance teams to get full perspective surrounding an issue.
+Utilize JIRA for internal case tracking, updating the cases to ensure proper documentation.
+What You’ll Need to Succeed:
+Bachelor’s Degree in Computer Science, Engineering, or equivalent experience
+1-3 years of experience in Tier 3 support or software development in a SaaS Environment
+Software Development skills including knowledge of OOP languages including but not limited to: C#, .NET and HTML.
+Exposure to Angular 8 is a huge plus
+Working knowledge of SQL and comfortable writing complex queries.
+Exposure to SOAP and REST API testing (Postman and Ready API) would be a bonus.
+Excellent verbal and written communication skills to collaborate across internal teams.
+Client focused attitude with an ability to work in a fast-paced environment and effectively prioritize tasks.
+Exposure to Oracle Opera PMS or Datadog is a huge plus
+Physical Requirements:
+The physical demands described here are representative of those that must be met by an employee to successfully perform the essential functions of this job. While performing the duties of this Job, the employee is regularly required to sit; use hands to type, use computer, phone, cell phone and other office/home office equipment/technology.
+Must be able speak, see, and hear.
+Must be able to remain in a stationary position for prolonged periods of the time.
+What’s in it for you:
+We offer great benefits such as: Competitive salary, Unlimited PTO, medical/dental/vision insurance, short-term and long-term disability insurance, 401k with company match, paid parental leave, life insurance.
+Sertifi is proud to be an Equal Opportunity Employer. Sertifi is committed to building a diverse team of talented individuals who bring different perspectives to the business and who feel a sense of inclusion and belonging when they join our team. All individuals seeking employment at Sertifi are considered without regards to race, ethnicity, color, age, sex, religion, national origin, ancestry, pregnancy, sexual orientation, gender identity, gender expression, genetic information, physical or mental disability, registered domestic partner status, caregiver status, marital status, veteran or military status, citizenship status, or any other basis forbidden under federal, state, or local law.
+RfPM3WSKeB</t>
+  </si>
+  <si>
+    <t>Android Mobile Developer</t>
+  </si>
+  <si>
+    <t>Powersolv</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=871e2179b2fbfbd2&amp;fccid=b51e5d542f13f9fa&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Posted
+1 day ago</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:15</t>
+  </si>
+  <si>
+    <t>Note: Remote position
+Required Skills and Experience
+Knowledge of programming procedures and standards.
+Design, code, and test application software, as well as modify existing software to reflect changes in functional requirements.
+Code using the Android SDK, Kotlin, and Java.
+Code efficiently while adhering to established programming standards.
+Prepare and maintain quality documentation to manage program development and revisions.
+Prepare instructions and user documentation for users / operators.
+Modify programs to increase operating efficiency.
+Prepare test data and validate software for accuracy. Perform other duties as assigned.
+Bachelor's degree in Computer Science, Information Systems, Software Engineering, or related area
+Preferred (Not Required)
+Bachelor’s degree in Computer Science, Information Systems, Software Engineering, or related area from an accredited institution and one year of experience dealing with designing, developing, testing and deploying production grade applications.
+Familiarity with Android frameworks.
+Successful candidates will have a good attention to detail, a desire to build good products for users, and a willingness to learn new technologies.
+Required Skills/Experience:
+Bachelor's degree in Computer Science, Information Systems, Software Engineering, or related area
+Three (3) to five (5) years of experience with Linux
+Three to five (5) years of Experience with Windows
+Minimum five (5) to seven (7) years of experience with Android SDK
+Minimum five (5) to seven (7) years of experience with Kotlin, Java
+Minimum five (5) to seven (7) years of experience with Android Studio
+Minimum three (3) to five (5) years of experience with Rest
+Preferred Skills
+Familiarity with Android frameworks
+Five (5) to seven (7) Experience with MySQL, SQL, and SQLite
+Three (3) to five (5) years of experience with Scrum/Agile
+Three (3) to five (5) years of experience with JSON
+Three (3) to five (5) years of experience with Espresso
+Three (3) to five (5) years of experience with Postman</t>
+  </si>
+  <si>
+    <t>Sr. Java Developer</t>
+  </si>
+  <si>
+    <t>Full Cycle Services</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/full-cycle-services/jobs/Senior-Java-Developer-753f231282a6a10c?fccid=6127cfcf24c46351&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:16</t>
+  </si>
+  <si>
+    <t>Position: Sr. Java Engineer
+Job description
+A growing Fortune 500 FInancial Services company is looking to hire a full-time Sr. Java Engineer.
+The Senior Engineer will provide substantial contributions in the design, coding, testing, support and debugging of new software and enhancements to existing software, using their technical knowledge, creativity and experience to deliver solutions to complex problems. They will be a technical specialist for the team and a mentor for more junior team members.
+Must Haves:
+3-5+ years of development experience
+Hands on Enterprise software development experience on multi-tiered systems including - Java, Spring Boot, REST Web Services/Swagger/Postman, data exchange (JSON, XML), JPA, Oracle
+Experience working with enterprise development environments and tools including - Git/BitBucket, Jenkins, JUnit, Selenium, JIRA/Confluence, SonarQube, Checkmarx, NexusIQ
+Experience working in cloud-based environments (AWS VPC, EC2, GIT) would be an advantage
+Knowledge of all phases of software development including design, coding, testing, debugging, implementation, and support
+Experience writing and reviewing software design specifications in an object-oriented development environment
+Experience designing, developing, and implementing complex micro-services applications
+Ability to thoroughly understand the business issues surrounding each project
+Ability to respond directly to questions from business clients
+Ability to be a technical authority and work with other team members
+Knowledge of standard change management tools and processes
+Ability to work in a team environment
+J*ob Responsibilities: *
+Experienced Agilist who embraces and expands the companies Agile practices through thought-leadership and integrating industry best practices
+Deep understanding and application of Agile approaches and techniques, such as XP, Scrum, Kanban, User Stories, TDD, Continuous Integration, Continuous Testing, Pairing, Automated Testing, etc.
+Demonstrate practices to write clean, quality, and testable applications that supports rapid delivery via Continuous Integration, Delivery, and automated deployments
+Ensuring overall solution quality through solid, automated-testing strategies, which include test-driven-design
+Creating and reviewing technical documentation and specifications, as necessary
+Identifying and unblocking technical risks
+Collaborates with other developers and provides significant contributions to develop specifications to resolve business client questions, problems, and to address enhancement needs.
+Uses technical knowledge, creativity and company practices and priorities to obtain solutions to complex problems.
+Interfaces with senior management to provide and obtain information and to build consensus regarding project direction
+Job Type: Full-time
+Pay: $130,000.00 - $140,000.00 per year
+Benefits:
+401(k)
+401(k) matching
+Dental insurance
+Employee discount
+Health insurance
+Paid time off
+Parental leave
+Referral program
+Vision insurance
+Schedule:
+Monday to Friday
+Supplemental Pay:
+Bonus pay
+Experience:
+Java: 5 years (Required)
+Spring Boot: 4 years (Required)
+AWS: 3 years (Required)
+Rest API's: 3 years (Preferred)
+Work Location: Remote</t>
+  </si>
+  <si>
+    <t>IOS Mobile Developer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=1e830d469ad426b8&amp;fccid=b51e5d542f13f9fa&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:18</t>
+  </si>
+  <si>
+    <t>Note: Remote position
+Required Skills and Experience
+Knowledge of programming procedures and standards.
+Design, code, and test application software, as well as modify existing software to reflect changes in functional requirements.
+Code Native iOS applications in Swift.
+Code efficiently while adhering to established programming standards.
+Prepare and maintain quality documentation to manage program development and revisions.
+Prepare instructions and user documentation for users / operators.
+Modify programs to increase operating efficiency.
+Prepare test data and validate software for accuracy.
+Perform other duties as assigned.
+Bachelor's degree in Computer Science, Information Systems, Software Engineering, or related area
+Preferred (Not Required)
+Bachelor’s degree in Computer Science, Information Systems, Software Engineering, or related area from an accredited institution and one year of experience dealing with designing, developing, testing and deploying production grade applications, familiarity with multiple package managers such as Cocoa Pods, Carthage and Swift Package Manager.
+Successful candidates will have a good attention to detail, a desire to build good products for users, and a willingness to learn new technologies
+Required Skills/Experience:
+Bachelor's degree in Computer Science, Information Systems, Software Engineering, or related area
+Experience of Code Native iOS applications in Swift.
+Minimum of five (5) to seven (7) years of experience with Swift
+Minimum of five (5) to seven (7) years of experience with XCode
+Minimum of three (3) to five (5) years of experience with Rest
+Three (3) to five (5) years of experience with Linux
+Three (3) to five (5) years of experience with Windows
+Preferred Skills:
+Three (3) to Five (5) years of experience with MySQL, SQL and SQL Lite
+Three (3) to five (5) Experience with Postman and Apple Instruments
+One (1) year of experience dealing with designing, developing, testing, and deploying production grade applications, familiarity with multiple package managers such as Cocoa Pods, Carthage and Swift Package Manager</t>
+  </si>
+  <si>
+    <t>Application Developer III</t>
+  </si>
+  <si>
+    <t>James River Insurance Company</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4cc29fd46760f2ae&amp;fccid=613d5af29daec124&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:19</t>
+  </si>
+  <si>
+    <t>Come grow with James River Insurance!
+James River Insurance is an excess and surplus lines segment of James River Group Holdings, Ltd. and operates on an approved non-admitted basis in 50 states and Washington, DC. Since 2003, James River has provided thousands of commercial property and casualty customers with innovative and creative solutions for particular insurance needs.
+At James River Insurance, we are committed to providing a stable and rewarding work environment supported by our Core Values and Guiding Principles: Integrity, Accountability, Innovation, Customer Service, Communication, and Teamwork. We are proud of our recent national recognition as a 2022 and 2021 Top Workplaces USA awards.
+Job Summary
+Under limited to minimal supervision, the Application Developer III develops, implements, and maintains software solutions of moderate to advanced complexity. The Application Developer III performs analysis, design, coding, debugging, testing, and support of software application systems.
+Duties and Responsibilities
+Continuously exhibit and uphold Core Values of Integrity, Accountability, Communication and Teamwork, Innovation and Customer Service
+Develop moderately complex to advanced applications and software solutions to meet customer needs
+Partner with project manager to accurately capture stakeholder requests and system specifications and translate them into engineering artifacts including design specifications, source code, test scripts and test results
+Create and implement the source code of new applications
+Test and debug source code
+Evaluate existing applications and perform updates and modifications
+Develop technical documentation including diagrams and workflows to represent the design and code of new and existing applications
+Perform advanced coding and programming tasks
+Shape coding methodologies and best practices
+Participate in code reviews
+Write functional specifications for and sign off on small to large features
+Write, execute and sign off on test plans
+Provide technical leadership for projects
+Develop user friendly windows interfaces
+Maintain existing web applications and server code
+Program server side business logic using objects passed between multiple application tiers
+Resolve application and data issues affecting internal and external users
+Estimate assigned task and project completion time
+Maintain legacy applications
+Provide programming and business knowledge assistance to other developers
+Research third party software as required
+Recommend new tools and methods to improve developer productivity
+Review requirements documents and provide estimates on new projects and enhancements
+Reviews current status of system applications and prepare recommendations for improvements
+Assist Business Systems Analysts, Project Managers and Scrum Masters to define business requirements and production support
+Demonstrate continuous learning; participate in hackfests, technical communities and technical conferences
+Knowledge, Skills and Abilities
+Knowledge of software design and programming principles
+Intermediate to advanced proficiency in all of the below:
+Integrated Development Environments: Visual Studio, Microsoft SQL Server Management Studio, PLSQL Developer or other Oracle IDE
+Application Programming Interfaces
+Database Development: SQL Server, Oracle, RavenDB
+Programming Languages: C#, JavaScript, TypeScript, T-SQL, PLSQL, HTML, CSS
+Platforms and Tools: Microsoft Software Development Stack &amp; other Office tools, Postman, Fiddler, AZURE DevOps
+Concepts (design patterns, data structures): N-Tier Architecture, Object Oriented Programming, RESTful API’s, Strategy Pattern, MVC, Relational Database Design, Inversion of Control
+Data Stores: SQl Server, Oracle, RavenDB, Excel spreadsheets, CSV files
+JS Frameworks: Angular, Sencha
+Advanced knowledge of P&amp;C insurance industry
+Research, analysis and problem-solving skills
+Ability to take direction from management or scrum masters
+Ability to exercise sound judgement in making critical decisions
+Ability to build effective relationships with business partners
+Ability to perform effectively as part of a team
+Ability to take initiative and work independently
+Ability to convey technical process information in a clear and concise manner
+Ability to manage multiple tasks and projects effectively
+Attention to detail
+Continuous learning style
+Active listening skills
+Excellent written and verbal communication skills
+Experience and Education
+Qualifications may warrant placement at another job level.
+Application Developer III
+High School Diploma required
+Bachelor’s Degree in related field (IT, Computer Science) preferred, or equivalent combination of education, training and experience
+Advanced Degree in related field (IT, Computer Science) preferred
+Minimum of five years of related experience (software development, programming, coding) required
+Certifications (programming) preferred
+Application Engineer
+High School Diploma required
+Bachelor’s Degree in related field (IT, Computer Science) preferred, or equivalent combination of education, training and experience
+Advanced Degree in related field (IT, Computer Science) preferred
+Minimum of eight years of related experience (software development, programming, coding) required
+Minimum of 3 years of application development or software engineering experience in the insurance or financial services industry required
+Certifications (programming) preferred</t>
+  </si>
+  <si>
+    <t>Remote Software Implementation Consultant</t>
+  </si>
+  <si>
+    <t>Piper Companies</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=c51605abfd9bc60a&amp;fccid=fc68da685e8aa986&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:21</t>
+  </si>
+  <si>
+    <t>Piper Companies is seeking a Remote Software Implementation Consultant to support a Debt Collection and Recovery Solutions provider. This role will be customer-facing and be responsible for the completion of service delivery, managed services, or implementation-oriented client projects in the Collections &amp; Recovery space.
+Responsibilities Software Implementation Consultant include:
+Reviews and analyzes client requirements/problems.
+Participates/leads teams in the design, development and delivery of technology/service based projects or components of larger, complex projects.
+Proposes and delivers cost-effective solutions to meet these requirements.
+Performs independent research to assist in the identification of client issues and develop client-specific solutions.
+Proactively develops broader and deeper knowledge of technology/services solutions and trends.
+Maintains and improves existing playbooks and other technical resources to enhance the ability to deploy complex solutions.
+Supports software installations, configuration, and maintenance for our customers both on-premise and in the Cloud
+Qualifications for the Software Implementation Consultant include:
+3+ years of related experience in consulting or services delivery, ideally in the financial, banking, collections &amp; recovery industry
+Strong technical solution architecture/design or development experience
+Track record putting together reliable, complex, secure, high performance, and scalable solutions for production environments
+Ability to manage multiple projects, juggle priorities, and deliver on tight deadlines
+Knowledge of consulting methodologies, tools, and techniques related to the functional areas desired.
+Expertise in query tuning, optimization, and refactoring for performance in a high availability environment.
+Bachelor's Degree
+Preferred Technical Experience:
+Object-Oriented Programming/Scripting
+RESTful API (Postman)
+Reports (SSRS)
+Development (Bitbucket, Jenkins)
+SQL/Postgres SQL Databases and ETL Pipelines
+Good knowledge of Linux Operations (CentOS/RHEL)
+Cloud (AWS, Azure); Containers (Docker, Kubernetes)
+Compensation for the Software Implementation Engineer include:
+Salary Range: $125,000 - $135,000 – Hourly Pay $55 – $65/hr
+Full benefits: Paid Holidays, Healthcare, Dental, Vision, 401k
+Keywords:
+Software implementation, implementation specialist, implementation, object oriented programming, scripting, restful api, api, ssrs, bitbucket, Jenkins, sql, postgres, etl pipelines, linux, centos, rhel, cloud, aws, amazon web services, containers, docker, kubernetes, consulting</t>
+  </si>
+  <si>
+    <t>Full Stack Software Engineer (Remote)</t>
+  </si>
+  <si>
+    <t>Vaco</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D_sybMACCpf9B-677oK5j6rPldVB6BlrVvFjO_o-GJZbzuF-qh4PxErFUqfUsv_6uHMaRqlBhl-FzV-zRuJLJoYUsFJETG-UnSe0aSxkMpUV6n203L9ItwDgRO7AnvzcnbuwB2_DQpmIqu8lISaDGQb34y0HCYzQaL2Qhky1eM9kjyJrAlhmvT0F9nOjhUcIysmpYozDq1zsju5Bog0iLkWpF95Dg9jNvSXzxpibkc9ccSTIRHC5Ay0QEU-ajuM3aK9Hs5N_ttj1wIXjedQz_2WywEmXgRjLbCy6jL8JeYl_NTDjfosetdvfNGt60woOlLWp5bBzMP57gZx4eu6fWdObuJeUQvO3PxzH32vq-bJkQvaDlSQn_9ib9JePCFZQjNNqljXeP62dZi6gotJVlGxgAXlgXCdZkahMXJbbDKOPFJIQUHWJoDYnJWFQBsXBmMxh9-HawmxeEA7xCNpUhWtoWS7NcUBuwBa_fIcLXJEYPlME9O7_vRI1op1avdH6wT19ZkZON1vg==&amp;p=8&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:23</t>
+  </si>
+  <si>
+    <t>Skills and experience:
+Title: Sr JavaScript Engineer
+Why is this position open? Growth
+Pay/Salary/Benefits/Perks: Up to 170k + competitive benefits
+Work from Home Policy: Fully Remote
+Interview Process: 3 Interviews, streamlined
+Key Skills: React, Node, TypeScript, MySQL, Postgres, MongoDB
+Qualifications:
+Live and work within the continental United States
+6+ years of relevant work experience
+2+ years experience building microservices in Node (preferably with TypeScript)
+2+ years experience building modern user experiences in React (preferably with TypeScript) leveraging tools/features (i.e. React Hooks, Redux)
+Working knowledge of data management technologies (i.e. MySQL, Postgres, MongoDB)
+Familiarity with container technologies (i.e. Docker, Kubernetes)
+Familiarity with cloud environments (i.e. AWS, Google Cloud)
+Familiarity with testing frameworks/tools (i.e. Jest, Mocha, Cypress, BrowserStack, Insomnia, Postman)
+Responsibilities:
+Translate requirements, wireframes, and designs into reusable components, microservices, and related libraries optimized for performance across various circumstances
+Support and maintain platform including CI/CD pipelines, monitoring and alerting, scalability, security, compliance, data management, and disaster recovery
+Stay informed of technology trends and product roadmaps to contribute to the team culture and technology direction through knowledge-sharing both within the team and beyond</t>
+  </si>
+  <si>
+    <t>Sr. DevOps Engineer (Full Remote)</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D_sybMACCpf9B-677oK5j6rPldVB6BlrVvFjO_o-GJZbzuF-qh4PxErFUqfUsv_6uHMaRqlBhl-ETlJKexHGxQjhgW7goJevGk1OSMn5_1M4Ki0Kqv70IhRwkCqj6-s_HvEo_pvF3FhmbuNGpJWCUZxT19USTVTtQJpYFlVDEIJTrUP1gJgZdZOieAn-o9E9LF0JPJ8R10n7fBI9rvLF0DnOqjqfprm0XE6m90_OQiX-cVbOGBbXTnIRBE6dKLMp5JnZIX8KJFB0Rt-rGp6ukWGEjztMdOGMVju3YlBG3SBFSWmDR6e9GA6z2k1wX24EVYsRPPiHjhZFMVpx96Bz7lxlR2kcqGsZ_n9OxkQgcAgDDtmRmd-KksAKQNKVxjUPl5-1jOUtZQPyVRL6QOUqkEMz16U7NZcUOSZ0EMOfKPdS7ickHxHjnjEwVLoFTiRCig6oY3HW1gIc5XY-JgEdcaJqCc_clF62KGEzCk_CtH48RxVksxUeBkwe7Kl4NixfsNlNTQFICueg==&amp;p=9&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:24</t>
+  </si>
+  <si>
+    <t>Skills and experience:
+Title: Sr Dev Ops Engineer
+Why is this position open? Growth
+Pay/Salary/Benefits/Perks: Up to 160k + competitive benefits
+Work from Home Policy: Fully Remote
+Interview Process: 3 Interviews, streamlined
+Key Skills: AWS and/or GCP, Kubernetes, Docker, Microservices
+Best personality for this role: Someone who is passionate about what they do and their craft, a pragmatic problem solver and independent thinker.
+Responsibilities:
+Translate requirements and designs into a secure, scalable, and highly-available multi-cloud microservices platform leveraging an automated container-based infrastructure
+Support and maintain all aspects of platform infrastructure including CI/CD pipelines, monitoring and alerting, scalability, security, compliance, data management, and disaster recovery
+Stay informed of technology trends and product roadmaps
+Qualifications:
+Live and work within the continental United States
+6+ years of relevant work experience
+4+ years experience with Kubernetes and a container runtime (i.e. Docker, Podman, Containerd)
+2+ years experience with cloud environments (i.e. AWS, Google Cloud Platform)
+Experience with CI/CD practices and tooling
+Working knowledge of data management technologies (i.e. MySQL, Postgres, MongoDb)
+Familiarity building microservices in Node
+Familiarity building modern user experiences in React
+Familiarity with testing frameworks/tools (i.e. Jest, Mocha, Cypress, BrowserStack, Insomnia, Postman)</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer - Remote</t>
+  </si>
+  <si>
+    <t>Reciprocity</t>
+  </si>
+  <si>
+    <t>Remote in San Francisco, CA</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Reciprocity/jobs/Technical-Support-Engineer-35b858218c8168f4?fccid=8bfaa1f0b3c3f5f0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:26</t>
+  </si>
+  <si>
+    <t>About Reciprocity!
+Reciprocity is shaping the future of Information Security with our modern SaaS approach to enable easy risk, audit, and security relationship management. The market is growing fast and will be a $1T market by 2025. With our great product, 100s of brand-name customers, solid funding, and our impressive exec team, we have the confidence to be a software juggernaut for years to come.
+Exciting companies share a common set of traits: large growing markets, disruptive technologies, kick-A teams, and a focus on a future state that's infinitely better than the current state. If this excites you, look no further.
+Our collaborative team is composed of smart and driven people with diverse interests. We pride ourselves on being family-friendly, striking a healthy work-life balance, and cultivating an open and supportive working environment. We are a 100% remote workforce, with presences in San Francisco, Argentina, and beautiful Ljubljana, Slovenia. If you're mission-driven, excited to solve tough problems, care deeply about values, and are a strong team player, keep reading and hopefully, you can jump on this rocketship with us.
+Job Description:
+We are looking for a Technical Support Engineer to join our Customer Success team to support our growing list of top-notch customers.
+We currently have Engineers in Europe, Argentina, and the US. We are looking for someone who is based in the US exclusively, for Pacific time zone coverage. Pacific Time or Mountain Time are strongly preferred.
+What you will get to do:
+Be part and work together with the Reciprocity Support team as the first point of contact with our customers for delivering service, managing fluent communication, understanding their pain points, and approaching solutions where possible.
+Work with Engineering, Product, and other departments on diagnosis, troubleshooting, escalations, technical questions, and new procedures to provide the best support experience to our customers.
+Talk to customers through a series of actions, either via email or phone, until they've solved a technical issue.
+Report design, reliability, and maintenance problems or bugs to appropriate departments to make sure problems are communicated and the solution is on the way - you are the voice of our customers.
+Ensure all issues are properly logged and be able to prepare accurate and timely reports based on issues information.
+Prioritize and manage several open issues at one time.
+Document technical knowledge in the form of notes, procedures, and manuals.
+Research and bring new ideas to the table about how we can improve Tech Support.
+Follow up with customers to ensure their systems are fully functional after troubleshooting.
+Observe confidentiality of customer information.
+What we are looking for:
+3+ years of Technical Support experience in a SaaS company, including initial troubleshooting and debugging skills through browser's developer tools.
+GRC or Infosec experience desired, with FedRAMP related experience being a plus. Experience interacting with APIs through different methods (PostMan, cURL).
+Experience with integrations with 3rd party solutions: SSO (OKTA, Azure), data visualization (Tableau, Tenable), and project management tools (JIRA, ServiceNow).
+Excellent oral and written English language skills, customer-facing oriented.
+Good knowledge of G Suite, Salesforce Service Cloud, and Atlassian tools.
+Must have significantly contributed to the successful completion of one or more projects.
+Ability to translate and define problems, collect data, establish facts, draw valid conclusions, and effectively report problems through written and/or graphical formats.
+Comfortable being on-call in the unlikely event it is required.
+Benefits
+We are committed to the health and safety of our people. Our people are working 100% remote, collaborating online and connecting over video, as they continue to deliver high-quality technology solutions
+Competitive salary and equity (we want everyone to be a stakeholder)
+Full benefits (medical, dental, vision, 401k matching, wellness, cell phone reimbursement, etc.)
+Flexible and unlimited PTO, paid sick days, 13 holidays
+Collaborating with smart coworkers that put Customers First and GSD
+Equal Employment Opportunity Statement:
+We value a diverse environment. Reciprocity provides equal employment opportunities to all employees and applicants for employment and prohibits discrimination and harassment of any type without regard to race, color, religion, age, sex, national origin, disability status, genetics, protected veteran, sexual orientation, gender identity or expression, or any characteristic protected by federal, state or local laws.
+Pursuant to the San Francisco Fair Chance Ordinance, we will consider for employment qualified applicants with arrest and conviction records.
+The statements herein are intended to describe the general nature and level of work being performed by employees assigned to this classification. They are not intended to be construed as an exhaustive list of all responsibilities, duties, and skills required for personnel so classified.
+#LI-REMOTE
+#LI-NW1
+Job Type: Full-time</t>
+  </si>
+  <si>
+    <t>Sr. Test Automation Engineer, Contract</t>
+  </si>
+  <si>
+    <t>iconectiv, LLC.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=37faee72d8b30b4d&amp;fccid=d32ff687349a515d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:28</t>
+  </si>
+  <si>
+    <t>#Location - US/Remote
+About iconectiv
+Your business and your customers need to access and exchange information simply, seamlessly and securely. iconectiv’s extensive experience in information services and its unmatched numbering intelligence helps you do just that. In fact, more than 2B people count on our platforms each day to keep their networks, devices and applications connected. Our cloud-based Software as a Service (SaaS) solutions span network and operations management, numbering, trusted communications and fraud prevention. For more information, visit www.iconectiv.com. Follow us on Twitter and LinkedIn.
+Responsibilities:
+iconectiv is seeking Test Automation Engineer to design test automation scripts to ensure that our products match our SW quality standards in support of a large scale software deployment. You will need to be collaborative and influential across our Agile team, working closely with development and DevOps teams to automate testing where possible, contributing to our Continuous Integration (CI) and Continuous Deployment (CD) pipeline. You will serve as key member for test Automation process toward quality-centric methodologies.
+Work with an Agile team to deliver best-in-class test automation scripts for our products
+Utilize automation for deployment and running test suites
+Partner with DevOps and other teams to build our Continuous Integration (CI) pipeline
+Create test plans and test cases to validate broad solution and specific functional requirements in a continuous improvement environment.
+Collaborate with System Engineering and Architecture, Program Management, and Software Development teams in all aspects of the development lifecycle from early design feedback, functional automation, reliability, stress, performance, integration testing, through to supporting production issues
+Requirements:
+Strong technical background on test automation (Robot framework preferably)
+Strong troubleshooting skills (experience with CloudWatch, X-Ray, etc. preferred)
+Working/practical knowledge of programming languages for testing (Python preferably)
+Working/practical experience with SQL Databases (AWS RDB preferably)
+Working/practical knowledge of REST APIs
+Experience with Postman or equivalent tools for REST API testing/debugging
+Working/practical knowledge of AWS Services including troubleshooting:
+Lambda
+Cognito
+API Gateway
+SES
+Working/practical knowledge of JSON Web Tokens (types, algorithms, signature validation, etc.)
+Working/practical knowledge of PKI (Certificate structures, CSRs, Certificate chains, etc.)
+Working/practical knowledge of encoding schemas (base64, base64url, ASN1)
+Working/practical experience with Non-SQL Databases (AWS DynamoDB)
+Relocation Benefits: This position is not eligible for relocation assistance.
+DISCLAIMER: The above statements are intended to describe the general nature and level of work being performed by employees assigned to this classification. They are not intended to be construed as an exhaustive list of all responsibilities, duties and skills required of employees assigned to this position. Therefore, employees assigned may be required to perform additional job tasks required by the manager.
+We are proud to be an EOE Minorities/Females/Protected Veterans/Disabled employer. The Company’s status is a VEVRAA Federal Contractor. Request Priority Protected Veteran Referrals. We maintain a drug-free workplace and perform pre-employment substance abuse testing.</t>
+  </si>
+  <si>
+    <t>Senior Cypress Automation Engineer-Remote</t>
+  </si>
+  <si>
+    <t>First American</t>
+  </si>
+  <si>
+    <t>Remote in Santa Ana, CA 92707</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=7007ea21f4a49a69&amp;fccid=9e68c7dc9642eb81&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:29</t>
+  </si>
+  <si>
+    <t>Date posted 04/08/2022
+Job Family Information Technology
+Requisition Number R034047
+Work Location Santa Ana, California
+Additional locations: Plano, Texas
+Employment Category Full Time
+Company Summary
+Join a team that puts its People First! Since 1889, First American (NYSE: FAF) has held an unwavering belief in its people. They are passionate about what they do, and we are equally passionate about fostering an environment where all feel welcome, supported, and empowered to be innovative and reach their full potential. Our inclusive, people-first culture has earned our company numerous accolades, including being named to the Fortune 100 Best Companies to Work For® list for six consecutive years. We have also earned awards as a best place to work for women, diversity and LGBTQ+ employees, and have been included on more than 50 regional best places to work lists. First American will always strive to be a great place to work, for all. For more information, please visit www.careers.firstam.com.
+Job Summary
+Calculators Team under CRAFT division is developing next generation Calculator application. Team is looking to identify a Senior Quality Assurance Professional that is excited to join a fast-paced start-up environment that is part of First American. This person needs to be passionate about quality and looking for their next challenge.
+Type of the role: Full Time
+Role Focus: The Senior Quality Assurance Engineer assisting in this effort will need to be well versed in all aspects of Quality Assurance with heavy focus on testing both SOAP and REST APIs as well as UI utilizing Cypress with JavaScript/TypeScript. Role would be about 80/20 (80% automation and 20% manual) – that would be the goal.
+Essential Duties and Responsibilities:
+Support and monitor new product development for adherence to the internal quality management
+Strong experience with UI and API test automation tools (Cypress, JavaScript, Postman.)
+Participate in formal design reviews, ensuring design control requirements are met during each design phase.
+Review and approve verification and validation protocols and reports for completeness and accuracy.
+Verify Configuration Management and Risk Analysis records are properly addressed, accurate, and maintained.
+Ensure design changes are processed in accordance with current change-control requirements.
+Complete assigned tasks on schedule and identify and propose resolution for issues that may affect the timeline for remediation activities.
+Provide quality engineering support
+Coordinate the resolution of potential quality assurance deficiencies discovered during the product realization process.
+The Quality Engineer (QE) will be focusing on developing process
+Engineers assisting in this effort will be relied upon to problem solve and optimize around a RESTful API while leveraging knowledge around the pain points of the existing SOAP implementation
+Capable of validating the relations between operation names, input, and output parameters of an operation defined in the interface of the SOAP API
+Build a dependency graph that connects input request and output response parameters of each operation along with the semantics
+Understanding of a Get method versus a Post method.
+Understanding of concrete binding information that may be/will be lost during the transformation because of incompatibility with RESTful API.
+Understanding of the information related to the SOAP transport mechanism, binding style, and body encoding that will be lost in the migration.
+Understanding of conversions with mapping of XML schema content to JSON schemas (or a subset of JSON schemas). Since XML and JSON are not fully compatible with each other, some information will not be fully translated e.g. JSON does not support attributes.
+Able to manually identify the resources involved in the API service as well as the CRUD operations that need to be performed, besides POST
+Generate server stubs
+Messaging optimization approaches
+Performance testing measuring the time difference between sending a request and receiving the response from the server for both services.
+Generate configuration files, servlets, and wrappers
+High Level of comfort with Postman Team Collaboration
+High level of comfort testing APIs (i.e. leveraging mocking and Postman)
+Understanding of NPM/Node.js and familiarity of Cypress Testing Library
+Education and/or Work Experience Requirements:
+Quality Engineering experience in new product development is required.
+Must be able to work effectively and collaborate within cross functional teams.
+Must be able to work independently leading Quality efforts.
+Must be able to effectively articulate (verbally and in writing) results and conclusions to technical and non-technical personnel.
+Must have strong documentation skills.
+Must take initiative and the ability to conduct hands-on work.
+Must possess the ability to handle multiple tasks with high attention to detail.
+Interpersonal skills requirements:
+Superior organizational and communication skills
+Good Written and Verbal skills.
+Able to take direction and execute plans.
+Able to work in a changing environment and communicate changes.
+Good interpersonal skills
+Experience:
+Quality assurance: 5-7 years (Preferred)
+Strong experience with UI and API test automation tools (Selenium, etc.)
+Work Location:
+Remote candidates encouraged to apply
+West Coast Time Zone Preferred
+#techreferral
+#dice
+#LI-DS1
+First American invests in its employees' development and well-being, empowers them to provide superior customer service and encourages them to serve the communities where they live and work. First American is committed to diversity and inclusion. We are an equal opportunity employer.
+Based on eligibility, First American offers a comprehensive benefits package including medical, dental, vision, 401k, PTO/paid sick leave and other great benefits like an employee stock purchase plan.</t>
+  </si>
+  <si>
+    <t>Cloud Solutions Architect - MS Azure</t>
+  </si>
+  <si>
+    <t>Rangam Consultants Inc</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Rangam-Consultants-Inc./jobs/Cloud-Solution-Architect-8df6a41bf433d7fd?fccid=5b511f3ebbda9738&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:31</t>
+  </si>
+  <si>
+    <t>Job Title: Application Architect
+Location: Remote
+Duration: 6 Months
+Job Description:
+Position can be fully remote
+Application Architect - API Mgmt - Hands on experience of designing and delivering distributed cloud solutions using Microsoft Azure
+Very strong hands-on experience with following technologies:
+Microsoft Azure PaaS and SaaS solution development technologies including Azure Functions
+Microsoft Azure App Service Fabric, App Service Environment, Microsoft Azure API Management platform technologies
+JSON, REST and data-based APIs and high scale performant service facades
+Microsoft Azure Identity Management and Security technologies including custom SAML 2.0 providers
+Azure Service Bus and Azure Notifications Hub
+Azure Artificial Intelligence and Machine Learning platforms – Microsoft Azure Machine Learning, Azure Cognitive Services
+Microsoft Azure Operational and Monitoring tools
+Developing SpringBoot services
+API &amp; WebService testing tools: SOAPUI, Postman, Advanced REST Client
+Mulesoft Runtime Fabric, CloudHub API development experience
+Knowledge and Familiarity with SQL, CosmosDB, Cassandra, Mongo DB, NoSQL, Managed File Transfers
+Experience with Integration best practices, design principles and approaches for a range of application styles and technologies to help guide and steer decisions.
+Experience working in a Dev/Ops environment with Continuous Integration and Deployment via Azure DevOps Services
+Experience of working in highly dynamic teams using agile methodologies
+Job Type: Contract
+Salary: $51.00 - $92.00 per hour
+Benefits:
+Health insurance
+Schedule:
+8 hour shift
+Monday to Friday
+Education:
+Bachelor's (Required)
+Experience:
+Azure: 10 years (Preferred)
+API Management: 3 years (Preferred)
+Cloud architecture: 5 years (Preferred)
+Work Location: Remote</t>
+  </si>
+  <si>
+    <t>Director of Quality Engineering and DevOps</t>
   </si>
   <si>
     <t>CyberCoders</t>
   </si>
   <si>
-    <t>Remote in Boston, MA 02127</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CpFJQzrgRR8WqXWK1qKKEqALWJw739KlKqr2H-MSI4eoBlI4EFrmor2FYZMP3muM0lfbtsFr8B2ZRU3pgO4tUZ5MxaIctDOFZsB-1UQHhMDhdBwUeznANZPH8ZowTmijTmYbCjrAOQCTUJytKfoHEMFWDYF3t-4Ft96x4l1jWbjLV23Iye62EAYuSf0OVuA5gC8D5jFyQAA0CcwF3gUR4a01chnI-S7tl7EbK97ghH2GXzXlO9WObIDoYGBhjZAphoKxqlZ4t5zE5W7oG5j3wI1aIXfXi-cOZoMASnT7zIhSMyunMbYAnLbM2_D_qqx-JhGu5ntttmWA_kgOgyCrZNblEopAOOt4F3vepYkQF6-KCJLN72rVH7RlO62qp02eCDnMPZXNiSDvX6F4kcRGUCNZPLMkY0Zsue2RtGxzCoyesaw5iWIj_9JVx4gVbRf1I292wg2Hp0Be23RMFB4EmcA8KpoOHCUtwTVrsoQLECxjDELrIvhs6_3YbWAvhtNTnzvwG4Oa-jvSWTKWcWUQDEK2dcD4Qnl1xe59E9M___4hur7Wt55o7_kQZ-8QsTK1zRyn96RLGki5Oq4gSP-na1II5CbhQyWSOBY2NOPUoNhk20OW-fxEJQ8w47-MrPt4MUWBfMppIkfligIgu9OZOj9Eaqgu6fVaHQdAh-kOiVdjhyCvIZZzXfhiwPhZx1GvOOKSpt3Qld7vmTVoFO6rgdxItvBrARo7zRKeI-4Od4eAs8r3OHfxuVjx6lh4CNdeU5KEPjkzEWSODs2rEDIkjiJ50qomIisZS5ymaRYnYsb2qe5wvMAjXlZYTF2VPAw1TLZXOWRvk0MnyxJcpMDxJbFjeuWtbN2dgQ0sNUw6sqqVR4mRBFGS9Plr7P2ImpB6uR4GESMtycqwj9QOB56VoFtjY63Bc4HqhWmtFfxh5qWrHeqlJtGM3SIzyYsZd3Dzz025mtXRlJhwegzeLjkqOVlYBfNZ6E748N2HyTQf5H7Q==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2022/04/07 13:36:05</t>
-  </si>
-  <si>
-    <t>Senior Staff Quality Engineer
-Job Title: Senior Staff Quality Engineer
-Job Location: Remote
-Requirements: 5+yrs exp., SASE, automation testing, microservices, AWS
-We are a well-established best practice mobile security company looking to empower our digital future&amp; and yours! Focused on data security and privacy, we are trusted by millions of individuals - from the largest corporations to your everyday consumer, we've got you covered. We are not hiring to sustain and maintain upon what is already created, we have so much opportunity for attacking and solving futuristic problems, there is never a dull moment! We are focused on hiring not only the best in the field but people who are committed to a collaborative culture, as well. We take pride in happy employees with minimal attrition.
-We are looking for a Senior Staff Quality Engineer to join our team. If this sounds like you please apply for this amazing opportunity. We are interviewing candidates this week and early next week.
+    <t>Remote in New York, NY</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CpFJQzrgRR8WqXWK1qKKEqALWJw739KlKqr2H-MSI4eoBlI4EFrmor2FYZMP3muM1IfAxaAA_RuLAnU9w5hDY_sfs5F4wU_K_q3-NLMH2eXpbMMyusm3CVOIdTltwYojAy2RGcSCZBayayJdjUwNtc8TDbJeYrYURD2H4tREyjAYENS1jMMMeaOTFNo10nOhWweawpgp_CtnjNM_7vOy3e9WK0ox3P_i9vFirnPPJ3rciz-KNHx6_3em86KxlqxIEyKmwDUy7WD-gFjh_mhFC4KO-Y8QR0eo59i7XQ2H2vhIibEfV9OhINf6l4qXSOgJ9sXucJX3qBGWEYOCAbrCl2okN-CxMP9fnPB1H5fXpMqCzGtqzSAD-faHC7h0JVgdzJHY0zWH-Bw8CMPMyzY5l8KcMS_upJPr4ZW2_3oElIavlsEQiuxZtSx8kdKMK02hBeULVspG5IeCarFSmArqU5wwKBtYZm4CPzIvEPT48fpxHwr-8WrZOdQ42NtN_0l7-WmXg6_heQBlvxdSr_kdhIySDlDcvq-OzrUAMqQi_2HzJ-4pMnDJ0pUtYAegROJLIjoRrR5yEuFSoPILUaKqaXyv0XU1m-eKlHAqXeDme5su-xGoEMIHcDI8vjsvFzX_E08FqzAZzqMj2_LsLTB4qLqYckAsHu1MT4USB01SeyOctyrOuX00YDnpbuS6Z1lL2XxkhpQMLS6lz31-Xx9ebm7fcef5x-oQAAxRBpedMNnaKMOURFg6viiEXfLtK_angATH1es-rW1cQk4ZFq-FypLIj-jCi_Twxdb6ts_eGGr7RIX2Aeubq--XWmlQ92Cq14cRD5sskxF6clFvRGVomq5HXTaC-glf9s4x8w5uIEczmADw9fZmg7k_r2hug_W6m7p9AfBIMwVj50m1KT0QmlArg36S0DmJETGr2ARqbinZCKnjyc2EkD8AhDr7UvHh2SYDEpmTRNPnKkq3U1liBBAmlkMjJC1pE=&amp;p=14&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:33</t>
+  </si>
+  <si>
+    <t>Director of Quality Engineering and DevOps
+If you are a Director of DevOps and Quality Engineeringwith experience, please read on!
+This is a 100% fully REMOTE position!
+We are a growing software technology company that enables businesses to run smoothly and efficiently! Our growth has opened up a number of opportunities and one of them is the Director of DevOps and Quality Engineering. This is a combined position where you will own the entire DevOps team and work closely, direct and lead the QA team members across product platforms. We specifically say Quality Engineering as this is automation testing including integration testing between our components.
+Your QE and DevOps teams will work on a variety of client facing products as well as internal tools and automation frameworks, CI/CD pipelines, and build quality dashboards.
+The ideal candidate is a self-starter, has led quality engineering and DevOps automation projects and teams and is well-versed in state-of-the-art tools and technologies that enable industry-leading Quality Engineering and DevOps organizations.
 What You Need for this Position
-10+ years of experience with an engineering degree in Computer Science or related degree
-Excellent in setting up Automation test framework and establishing the test procedures
-Building Test strategies for complex security deployment with a lot of VM and Container based components in a highly distributed cloud environment
-Hands-on experience with Micro services and AWS
-Strong understanding of networking and security (SDWAN, IPSec, GRE, DPI, NAT, Firewall, TCP/IP/UDP/ARP, Proxy)
-Experience of developing performance test suites using load generators (Ixia, Spirent,...)
-Extensive experience on Shell Scripting, Python, PyUnit/PyTest
-Hands-on experience in Docker, Linux, Windows, XML, Database
-Experience with REST services automation tools (REST Assured,...)
-Sound fundamentals in Operating Systems and Data Networking
-Excellent debugging and problem solving skills
-Should be able to adopt new technologies easily
-Should be ready to work in both manual and automation test environments
-Should be prompt in identifying competing priorities and prioritizing them for business
-Should have a break the solution attitude
-Excellent in Test Planning, Test Case writing, Task Estimation
-Communicate well both orally and written, with all stakeholders and work with virtual teams across the globe
-Should have worked in Agile based SDLC
+Bachelor's degree in computer science, engineering, or a related field required. Master's degree strongly preferred
+10+ years of experience in software testing, test automation and performance testing with solid demonstrable understanding of software development and testing practices
+5+ years of experience in leading Quality test automation projects and teams
+5+ years of experience as a DevOps/System Engineer, Architect or Technical lead
+3+ years of experience implementing/managing CI/CD pipelines.
+5+ years of people management experience with 1+ years of managing managers
+Indirectly leads team of approximately 5-20 employees
+5+ years of hands-on experience in developing and coding automation/performance testing code, coding testing harnesses or frameworks
+5+ years of experience in supporting Agile teams in developing all level of tests, such as service test, integration, and functional end-to-end tests, using cutting edge technology (microservices, Docker, Azure, Postman, Test Rails, Visual Studio, Selenium)
+Experience and working knowledge of manual and automated Smoke and Regression testing best practices
+Expertise in the usage and testing of frontend frameworks (e.g., Angular, React)
+5+ years of experience leading automated testing of distributed systems, preferably in a SaaS and on-Prem environment using Agile methodology
+Experience working with REST services and understanding of modern cloud architecture
+Experience in automation testing during CI/CD
+Experience in distributed source control systems such as Git
+Knowledge of cloud platforms such as AWS or Azure and experience in testing micro-services, containers, dockers is a plus
+Experience with automation technologies like Terraform, CloudFormation, ARM (Azure Resource Manager), Ansible, SaltStack, Chef, Puppet, or similar is a plus
 What's In It for You
-Competitive Salary
-Annual Bonus
-Stock Options (that already have an incredibly high value with incredibly high upside on top of that)
-Unlimited PTO (for US only)
-Full Health Insurance Coverage
-Stipend Benefits ranging from cell phone/mobile devices to gym facilities
-Interested in working for a leading endpoint-to-cloud cybersecurity company? Send your resume to adrian.divecha@cybercoders.com
-Colorado employees will receive paid sick leave. For additional information about available benefits, please contact Adrian Divecha
+We offer the opportunity to shine in a growing organization and take our products to the next level!
+This is a 100% REMOTE position!
+So, if you are a Director of DevOps and Quality Engineering with experience, please apply today!
+Colorado employees will receive paid sick leave. For additional information about available benefits, please contact Rhona Kannon
 Applicants must be authorized to work in the U.S.
 CyberCoders, Inc is proud to be an Equal Opportunity Employer
 All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, national origin, disability, protected veteran status, or any other characteristic protected by law.
 Your Right to Work – In compliance with federal law, all persons hired will be required to verify identity and eligibility to work in the United States and to complete the required employment eligibility verification document form upon hire.</t>
   </si>
   <si>
-    <t>Dispatcher/Truck Driver</t>
-  </si>
-  <si>
-    <t>Diamond Dispatching, LLC</t>
-  </si>
-  <si>
-    <t>Remote</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/Diamond-Dispatching,-LLC/jobs/Dispatcher-Truck-Driver-40bb1d6819ddee48?fccid=f04db0541c00e902&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Posted
-Just posted</t>
-  </si>
-  <si>
-    <t>2022/04/07 13:36:10</t>
-  </si>
-  <si>
-    <t>Dispatcher for owner operator / Fleet operator
-Come join our family of professional CDL A Drivers and be a part of a full service Dispatching team that caters to our carriers. Diamond Dispatching, LLC is here to make the lives of Independent Owner Operators as well as Fleet Owners a much easier one. We are a one stop shop which allows you to focus on safely delivering products and goods.
-We provide personalized services to each of our drivers to ensure that we have provided a Dispatcher who will develop and manage an open channel of communication and ensure each customer receives top Priority. We are a professional dispatching company with the experience and education needed for booking loads and negotiating the highest rates. At Diamond Dispatching, LLC we respect and treat our drivers like family. We go above and beyond for our drivers, so they can rest assured that they will be getting the best paying loads and priority treatment.
-About The Role:
-As the Dispatcher you'll ensure the timely and proper delivery of Containers. You'll work with Owner Operator's and 3rd party fleets to deliver loads and coordinate with Operations Specialists on any exceptions. Maintaining accurate data, tracking and tracing loads using mobile application and GPS data, maximizing driver satisfaction and efficiency is a priority for you.
-Job Duties:
-Assign drivers to loads according to delivery plans in order to maximize efficiency, customer satisfaction, and driver opportunity
-Manage delivery exceptions to speedy resolution
-Answer a high level of inbound calls to assist 3rd party carrier load exceptions
-Ensure that drivers are using the mobile application for track &amp; trace as well as upload of load-related documents
-Guide and help drivers' problem solve and resolute drivers' contact issues (primarily via text, phone or e-mail) in a timely and appropriate manner
-Anticipate, identify, and resolve problems that delay the release or delivery of cargo
-Continuously improve operational processes to gain efficiencies and reduce issues
-Other duties as assigned
+    <t>Salesforce Developer (Remote)</t>
+  </si>
+  <si>
+    <t>J2 Interactive</t>
+  </si>
+  <si>
+    <t>Remote in Seattle, WA 98164</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/J2-Interactive/jobs/Salesforce-Developer-a6409c1a18adae59?fccid=c409df410e229c18&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:37</t>
+  </si>
+  <si>
+    <t>Job Description
+J2 Interactive is looking for qualified candidates to help us build creative and innovative solutions for our clients using the Salesforce platform. Since 2007, J2 Interactive has been delivering custom applications and large-scale health information exchange implementations for local RHIOs, statewide exchanges, and private health systems. As our team continues to expand the breadth of its service offerings, we're looking for talented, experienced software developers and interoperability experts who bring a knowledge of (or at least, a strong interest in) healthcare as well as deep experience with Salesforce integration and application development.
+Though our headquarters is located in Charlestown (Boston), MA, this is a telecommuting position open to anyone who's eligible to work in the US.
+Candidates must be willing to submit to a background check. No recruiters or third party solicitations please.
+Skills Description
+The ideal candidate will be a Salesforce Developer who has hands-on experience building solutions on the Salesforce.com platform and enjoys learning and growing their Salesforce knowledge. J2 is looking for candidates who demonstrate strength in the following three areas: client experience, software development technical knowledge, and Salesforce knowledge. A qualified candidate will have strengths in at least 2 areas, the preferred candidate will have skills in all 3.
+Client Experience
+Excellent written and oral communication skills; ability to work directly with clients.
+Proven track record of ability to work with teams to prioritize multiple simultaneous requests and workstreams and provide accurate time and duration estimates of work to be performed.
+Ability to work independently, stay focused, meet deadlines and promptly report clear and accurate status.
+Embrace the J2 culture while having a professional bearing with clients.
+Software Development Technical Knowledge
+Experience with modern SDLCs and ability to be successful at each stage for projects using either Agile or Waterfall methodologies.
+Object Oriented design and development (SOLID principles and design patterns)
+Software engineering problem solving approach to solutions and designs
+3-5 years of development experience using APEX or 1 years of experience in APEX and equivalent 3-5 years of experience in Java or C#
+SFDX toolchain experience
+DevOps tools
+2 years of experience developing Lightning Web Components or equivalent JavaScript and HTML development experience
+2-5 years of experience REST API development or SOAP development including use of tools such as Postman and Curl
+2-5 years of experience with Integration tools such as Mule Soft, Boomi, Informatica, Oracle or SAP
+A strong background in mobile app and web development including fluency in multiple mainstream programming languages (Java, Javascript, C#, SQL, HTML, HTML5) and knowledge of how to best leverage the tools, frameworks and APIs used to build apps for different devices, although this is not required.
+Salesforce Knowledge
+In-depth understanding of Salesforce.com's Sales Cloud, Service Cloud and Experience Cloud product offerings.
+Recent Health Cloud experience is ideal – if you have this, we want to talk to you.
+Recent Field Service experience is desired, but not required.
+3+ years’ experience writing and debugging Apex, flows, and triggers in the Force.com development environment.
+Experience creating, modifying and troubleshooting Lightning Web Components.
+A track record in design and development of solutions that connect customers’ data with the Salesforce platform and intimate familiarity with the capabilities of the Salesforce web service API.
+Experience provisioning and administering Salesforce environments in a production setting, including creating sandboxes and utilizing change sets.
+Active Salesforce Certifications are desirable.
+We're especially looking for people with experience in the U.S. healthcare industry although that is not strictly required.
+Company Description
+J2 Interactive is an award-winning software development and IT consulting firm specializing in customized solutions for hospitals, labs, research institutions, and health information exchanges. Our approach to design and development is rooted in a fundamental belief that systems succeed or fail based on how well they serve the people who depend upon them. For our clients in the healthcare industry, that includes doctors, nurses, technicians, and administrative staff ... but ultimately, it means patients and their families. At J2 we get a lot of satisfaction out of helping our customers succeed, and we want people with that same commitment to getting the job done right. We’re not afraid to give people the responsibility of working directly with clients, defining project specs, and choosing implementation strategies. Our casual work environment and telecommuting options give our staff a high quality of life to go along with the technical and creative challenges of the work itself.
+Benefits*
+The ability to telecommute from your home office
+Minimal travel on most projects
+Aggressive employee profit-sharing program
+Voluntary 401(k) plan with company matching up to 4% of salary
+Medical, dental and vision insurance, with 50% of costs paid by J2
+J2 Flex Spending Account to pay for medical expenses on a pre-tax basis
+Short-term and long-term disability insurance, paid for by J2
+Laptop and required software provided by J2
+Annual ski trip that will make you wonder how you found this awesome company
+If you're interested in joining our team, we invite you to submit your resume so we can take a look. We move fast ... so if you've got what we're looking for, you'll be amazed at how quickly you might have yourself a new job that you'll love.
+J2 Privacy Policy
+Job Type: Full-time</t>
+  </si>
+  <si>
+    <t>Sr Product Manager</t>
+  </si>
+  <si>
+    <t>Convention Data Services</t>
+  </si>
+  <si>
+    <t>+1 location
+Remote</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=acdfab996eb06652&amp;fccid=d8418a49cda48bd1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:38</t>
+  </si>
+  <si>
+    <t>The Senior Product Manager position is a highly motivated, experienced product and tech enthusiast, helping to guide the success of our Product Development agile teams as part of the industry-leading Event Registration and Experience company. You’ll be collaborating with Development and Business teams to ensure we’re aligned on vision, technology direction, architecture, and best practices, while helping lead the day-to-day progress of the team. We practice continuous innovation in creating new products and solutions to support our Show Organizers, Exhibitors, and Attendees, and this role is pivotal to our continued success in doing so.
+You’ll be joining a growing team with an established track record of success managing custom-built solutions, integrating with other industry leaders, and bringing new products and services to life. You’ll also be pivotal in helping lead our customers and industry in best practices and thought leadership in a collaborative, team-driven environment, where we teach and learn from each other. We value diversity of opinion and thought, and put our trust in each other to ensure we succeed as a team. This position will report to the CTO.
+Key Responsibilities
+Product Strategy &amp; Roadmap
+Able to own and be accountable for one or more product roadmaps, each focused on the specific metrics to impact.
+Leading the strategy and direction for each roadmap, and working with Product Leadership on the overall Product Roadmap for the company.
+Able to ideate/support/defend the business direction and prioritization for the roadmaps being managed.
+Manage Execution
+Able to manage two or more agile teams in delivery of stories on a regular cadence. Leading story reviews, answering questions for tech and business, removing roadblocks, preparing/leading product training, and assisting with support of product features.
+Outcomes Driven
+Accountable for achieving the product metrics identified and committed to the Executive team for two or more product/set roadmaps.
+Establishing, measuring and explaining the outcomes regularly, and interpreting results into further product development to achieve the business aims.
+Working with the development team, data team and business stakeholders to ensure we have the data we need to make effective and accurate business decisions based on product performance.
+Communication
+Accountable for communicating the product/set roadmaps to business stakeholders and end users to build trust and confidence in our ability to deliver world-class products.
+Effectively able to hold strategy meetings and workshops with stakeholders, execution meetings with the development and data teams, and ensuring all stakeholders stay up to date on progress and business impacts.
+Accountable for Product training to end users through various methods (live, written, video, etc.) where deemed most effective for each set of users.
+Able to provide best practices for Product within the organization, and help adjust and train on new/different approaches where needed.
+Mentoring
+Partnered with equal or junior members of the product team to provide best practices, coaching and guidance in challenges on a regular basis.
+Consistently share best practices we've learned as well as industry best practices to help contribute to our success as a well-functioning product team.
+Build and assist the team to have measurable professional goals and action plans, building demonstrable examples of success in a product role.
+Job Qualifications
+BA/BS degree in Tech or Business-related field.
+3+ years of experience in development-related field, corporate or consulting environment.
+3+ years Product Management experience successfully leading tech products through the various stages of the product lifecycle (MVP, product/market fit, growth, maintenance, sunset)
+Experience defining outcome metrics and visualizations to guide product success.
+Recommendations from development team members and business stakeholders on your effectiveness at leading a product/set preferred.
+Experience with agile or lean methodologies, and continuous integration/delivery.
+Experience concepting and defining responsive and/or mobile-first web and app products, and managing the design, development, and deployment of those products.
+Experience with the following is a plus:
+o. Adobe XD, Figma
+p. Postman, Swagger
+q. Atlassian Products – Jira, Confluence
+r. Microsoft Sharepoint/OneDrive, Teams
+Work Environment
+Work is performed primarily remotely, with occasional travel to the corporate headquarters in Cape Cod, and to event sites around the country or even internationally. Working times may, although rarely, include irregular hours and on-call status including days, evenings, weekends and holidays.</t>
+  </si>
+  <si>
+    <t>QA Analyst Entry to Intermediate</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>Remote in Saint Petersburg, FL
++1 location</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4f382de0cc34fbc9&amp;fccid=082e59b71e3e4fe2&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:40</t>
+  </si>
+  <si>
+    <t>QA Analyst Entry to Intermediate
+Job Number : 192038
+As an entry or intermediate Quality Assurance Analyst on the Property IT Claims team, you’ll help deliver enhancements to key Progressive Business areas: Progressive Home, Business Owner Policy, and Flood. You’ll join a growing and dynamic team with potential to drive value across several business units. You’ll test enhancements and use a number of different testing methods and techniques to test backend systems and UI. You’ll also work with your team to leverage Scrum and Lean to create functionality for efficient Claim handling.
+Remote work allowed
+Must-have qualifications
+Bachelor's Degree or higher in a Business or Information Technology discipline or other related field of study.
+Instead of a degree, a minimum of two years of related work experience, which includes experience analyzing, testing and implementing business system changes or user acceptance testing, or the completion of an established apprenticeship program may be accepted, or the completion of an established apprenticeship program may be accepted.
+Preferred skills
+Experience testing software within a Scrum team
+Strong understanding of testing methodologies, tools and practices (functional, regression, BlackBox, back-end API with Postman, testing of backend systems and UI) with proven ability to access implications of proposed system changes
+Experience with test design, creation and execution
+Ability to consult, collaborate, influence and present to a variety of audiences
+Compensation
+$51,900- $80,400/year depending on position level and experience
+Gainshare bonus up to 16-24% (depending on position level) of your eligible earnings based on company performance
+Benefits
+401(k) with dollar-for-dollar company match up to 6%
+Medical, dental &amp; vision, including free preventative care
+Wellness &amp; mental health programs
+Health care flexible spending accounts, health savings accounts, &amp; life insurance
+Paid time off
+Paid &amp; unpaid sick leave where applicable, as well as short &amp; long-term disability
+Parental &amp; family leave; military leave &amp; pay
+Diverse, inclusive &amp; welcoming culture with Employee Resource Groups
+Career development &amp; tuition assistance
+Onsite gym &amp; healthcare at large locations
+Sponsorship for work authorization for foreign national candidates is not available for this position.
+Equal Opportunity Employer
+Job : Information Technology
+Primary Location : United States-Florida-St Petersburg
+Schedule : Full-time
+Employee Status : Regular
+Work From Home : Yes</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Arthur-Grand-Technologies/jobs/Java-API-Developer-Midlevel-015ec87fe9a1dfa1?fccid=0ddee73c57c63ea5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:42</t>
+  </si>
+  <si>
+    <t>You will be directly working on building a new microservices-based solution to assist millions of students pursue the dream of higher education. This is an exciting opportunity creating a new cloud-based application while being a part of a DevSecOps integration. Your ability to develop in JAVA and create REST API’s are just the skills we need to deliver this solution to our customer. Communication is important within our organization; we use the Scaled Agile Framework (SAFe) to empower our development team.
+Your day-to-day impact:
+Working as a member of a scrum team to develop, integrate, and deploy high quality reusable, testable, and efficient code including Microservices with Java, Spring Boot, and REST API’s
+Developing microservices that include RESTful services using Spring Framework (IoC, MVC, Transactions, Security, and Batch)
+Writing Unit Test frameworks (JUnit, Mocking frameworks), code coverage, and code review and integrating work with GitLab
+Working within a SAFe environment that includes consistent leadership support, continued learning education, refining user stories, providing internal and customer demonstrations of developed code
+Contributing within the Daily scrum, Sprint Planning, Sprint Retrospectives, Sprint and System Demos, PI Planning, and Inspect &amp; Adapt events.
+Required Skills/Experience:
+2+ of related experience in software development
+Experience with JAVA and developing/maintaining backend APIs.
+Bachelor's degree in Computer Science, Engineering, or related technical discipline, or the equivalent combination of education, technical training, or work/military experience.
+U.S. Citizen with existing or the ability to pass a Public Trust background investigation
+Desired Skills/Experience:
+Knowledge of REST API, JSON.
+Experience using API test cases in SOAP UI, PostMan, or ReadyAPI.
+Experience with common web development frameworks (Angular, Docker, React, Spring, Node.js, jQuery, Microservice Design, etc.)
+Experience with GitLab DevOps/CI/CD platform
+Experience with an IDE such as eclipse.
+Job Types: Full-time, Contract
+Experience:
+AWS: 1 year (Required)
+Java: 7 years (Required)
+APIs: 3 years (Required)
+Security clearance:
+Confidential (Required)
+Work Location: Remote
+Speak with the employer
++91 +1 (703)-859-9291</t>
+  </si>
+  <si>
+    <t>US_East | IT Consultant - Cloud Specialist_L2</t>
+  </si>
+  <si>
+    <t>Enterprise Solutions, Inc. (ESI)</t>
+  </si>
+  <si>
+    <t>Remote in Chicago, IL</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=79a1cdb7e4227194&amp;fccid=2c2ddbdad05f41c6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:44</t>
+  </si>
+  <si>
+    <t>Job Description
+Description:
+Possible 3 Month CTH | No Fees | Do Not Re-Post | Confidential
+Submit candidates under their legal name and use only Capgemini template
+Role: Cloud Integration Expert
+Worlk Location: CHICAGO, IL (Remote)
+Start date: Immediate availability
+Background check MANDATORY
+Request ID: 12085018
+Pursuit Project
+JOB DESCRIPTION
+Role and Responsibilities Description
+Develop Application Integrations in Azure Integration Platform using Logic App, Azure Functions, Azure Durable Functions, API management, Services Bus, Event Grid, Rest API’s.
+Develop workflows for back and forth transactions across systems, processes and vendors leveraging Logic Apps, Function Apps capabilities
+Develop cloud native solutions using ASP.NET Web APIs, Microservices, C#, MVC, Entity Framework, .Net Core, REST API.
+Describe API metadata and discovery with Swagger
+Develop business activity monitoring solutions for visibility into transactions, messages, state of workflows etc.
+Contribute to application and partner integration and security on multiple large-scale, mission-critical systems.
+Work collaboratively as a key contributor on a high performing team which ships code and delivers value
+Technical Skills
+Required: Azure native application development, Azure cloud native Azure Integration Services (Logic Apps, API Management, Service Bus &amp; Event Grid) Azure SQL Database, Azure Web Jobs, MySQL, SQL Server, SQL Server IaaS, Azure Monitoring and application insights
+Preferred: Azure Active Directory, Azure Backup, Azure Storage, ARM Templates, JSON scripting, Azure App Services, Orchestration, Kubernetes, and Containers (Docker), Azure BizTalk Services
+Qualifications
+5+ years’ programming experience with C#, .NET, SQL, ASP.NET
+At least 2+ years’ experience in developing integrations using Microsoft’s Azure Application Integration environment. Including utilization in Logic Apps, Function Apps, Functions, Service Bus, Event Grid and API Management
+Experience in developing on Agile methodology / SCRUM
+Must have Experience in CI/CD tools (e.g, Jenkins, Azure DevOps, TFS)
+2+ years’ experience in writing Unit Testing, Integration Testing, System Testing using tools like Postman, Fiddler etc.
+Experience with backend databases and queuing technologies (relational databases, SQL functions, queries)
+Self-directed, works with limited management direction, and exercises considerable latitude in determining technical objectives of assignment
+Exceptional Communication skills in working with the customer stakeholders
+Certification:
+Azure Architect Certification, AZ-204
+Legal Name:
+Current Location: (City, State &amp; Zip Code):
+Home location:
+Relocate:
+Bill Rate:
+CTH After 3 Months:
+Travelling Availability:
+Availability to Start:
+Phone/Mobile Number:
+Skype ID:
+Email Address:
+Visa Type:
+Visa Expiration Date:
+Hiring Status:
+Are you working directly with the contractor’s visa holder:
+If not indicate # of layers and names of the company:
+Indicate if the Candidate has worked in CG before and where:
+Ex-Capgemini Employee:
+LinkedIn Account: (If available)
+Time slots for an interview:
+Contractor approved to share its resume to client:
+Skills summary:
+Resumes will be rejected for the following reasons:
+Different format
+Missing details in comments section
+Missing text box in the header
+Photo ID included containing personal information other than legal name and photo
+Rebeca Jimenez
+External Resource Manager (ERM) | SubCo Staffing Center
+Capgemini North America | Guatemala</t>
+  </si>
+  <si>
+    <t>Chaos Engineer</t>
+  </si>
+  <si>
+    <t>Purple Drive Technologies</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Purple-Drive-Technologies/jobs/Chao-Engineer-8d7d5ab66e5627e2?fccid=b50885016c495d25&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:45</t>
+  </si>
+  <si>
+    <t>Job Description
+Role
+Workplace Investing (WI) is seeking a Site Reliability Engineering (SRE) Chaos Engineering Contractor with 10+ years of industry experience.
+We are looking for a Chaos Engineering lead who combines strategic thought leadership skills, a strong development &amp; automation background and sound business judgment. As a Chaos Engineering Lead, you will actively contribute to the day-to-day planning, design, execution, and reporting of chaos testing. You will also bring industry experience and “outside in” thought leadership to discover new opportunities, drive efficiencies in testing and to influence future Chaos Engineering standards and best practices.
+This is an exciting opportunity to join a passionate SRE Centre of Excellence (COE) team who are dedicated to providing a truly predictable customer experience. Under times of market volatility and high volumes, there is an increased expectation of a consistent service level. In WI, we strive to meet this expectation by building reliability into our ecosystem. This will be achieved though defining &amp; implementing practices in Resiliency Engineering, Automation, Observability &amp; Chaos Testing while also engraining a proactive Chaos Culture that thinks reliability first design.
+Expertise and Skills Required
+Proven track record performing chaos testing to build confidence in the system's capability to withstand turbulent conditions in production
+Possess an architectural mindset with proven ability to review architecture to derive Chaos Strategy and expose vulnerabilities.
+Experience working with standalone applications and across E2E Customer Transactions (multi app)
+Possess an automation mentality to drive scalable Chaos approaches
+Hands on Experience with Cloud technologies (AWS/Azure)
+Excellent Java and Groovy Shell scripting skills.
+Proven Hands-on experience working with modern container services (Docker/Kubernetes)
+Proven Hands-on experience working with Web Services and Databases
+Strong understanding of CI/CD Engineering
+Strong understanding of Quality Engineering
+Proven use of Chaos engineering tools (e.g. Gremlin)
+Strong understanding of Performance testing tools
+Strong understanding of Observability tooling (e.g. Datadog, Grafana, Kibana)
+Strong understanding in API testing tools (SoapUI, Postman, Soatest)
+Understanding of Agile Methodology
+Behavioral
+Thought leadership and Research capabilities
+Ability to evaluate and propose best-of-breed tools and engineering best-practices
+Deeply self-motivated with the ability to work independently, coordinating activities within cross-regional and multi-functional teams
+Ability to deal with ambiguous situations
+A passion for excellence, innovation, and teamwork; eager to learn and adapt every day
+Proven track record to quickly learn, adapt and thrive in a fast paced, dynamic and deadline driven environment
+Excellent Communication Skills
+Preferred
+Experience in AI/ML
+Expertise in Angular and Python
+The Team
+The SRE COE comprises of a team of passionate experts dedicated to deriving and implementing site reliability practices across a number of key workstreams, including, Observability, Resiliency, Chaos Engineering and Operations.
+You will have accountability for delivering strategic change across a diverse set of applications, technologies, and squads.
+Job Types: Full-time, Contract
+Salary: From $100,000.00 per year
+Schedule:
+Monday to Friday
+Work Location: Remote</t>
+  </si>
+  <si>
+    <t>Software Engineer (REMOTE)</t>
+  </si>
+  <si>
+    <t>KBX</t>
+  </si>
+  <si>
+    <t>Remote in Reno, NV 89521
++9 locations</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=0635e10b8a35fd36&amp;fccid=c714e6faa51b54c4&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:47</t>
+  </si>
+  <si>
+    <t>Description
+KBX Technology Solutions, LLC, a provider of transportation technology to industry leaders, is seeking a Frontend Software Engineer to join our team. This role will be part of a team of engineers that are responsible for enhancing existing applications and for building applications using modern microservices architecture techniques. Responsibilities include implementing solutions that are secure, support best practices, embrace CI/CD, and scalable. The qualified candidate has a solid understanding of the organization(s) being supported and KBXT’s role in the business's mission and applies it to software design and development.
+KBX Technology Solutions provides logistics solutions for its customers through innovative technology that helps deliver actionable intelligence, eliminate waste and redundancies, and create greater operational efficiencies in the marketplace. KBX Technology Solutions is a subsidiary of KBX – a Koch Industries Inc. company – and complements all KBX subsidiaries (Rail, Logistics, and International) to drive enhanced data and analytics across the global supply chain for customers. Based in Wichita, Kansas, Koch Industries is one of the largest privately held companies in America. Being privately held, we are able to embrace long-term visions and invest in the future through our holistic application of Market-Based Management®.
+What You Will Do In Your Role
+Work independently, or within the construct of a product team, to understand customer and business requirements to deliver creative solutions which meet or exceed those business needs.
+Execution of this role will involve both the deployment of standardized product offerings and the creation of new solutions and services as required to meet customer needs.
+Coordinate with peers in leading the effort to develop and/or refine processes which optimize the delivery of Cloud solutions and create value for KBXT and its customers.
+Maintain awareness of emerging industry trends and technologies which may create value.
+Produce documentation to support solutions that you have developed in order to aid in support of the solution.
+Performing analysis and development of Web-based front-end applications.
+Working with a team of engineers and analysts through discovery, delivery, and support of new platforms that are focused on the transformation of our transportation management systems.
+Ensuring delivery of technical solutions that meet the business outcomes, consistent with software development standards and best practices for a service-oriented architecture.
+Develop, test, and deploy solutions based on requirements.
+Document changes based on solutions deployed.
+The Experience You Will Bring
 Requirements:
-High School diploma/equivalent
-Sales experience preferred
-Understanding of applicable regulations including areas of safety and commercial driver HOS
-Demonstrated ability to perform with grace under pressure
-Multi-tasking skills in a fast-moving and changing environment
-Excellent written and verbal communications
-Experience with industry-standard TMS systems as well as Microsoft productivity software, google suite a plus
-Passion for technology
-NEW DISPATCHERS WELCOMED!
-*This is a commission based position
-Job Types: Full-time, Part-time, Contract
-Pay: $45,117.00 - $100,000.00 per year
-Benefits:
-Flexible schedule
-Paid time off
+High school diploma
+Experience as a programmer/analyst, developing and supporting applications.
+Experience with developing in Angular 6, JavaScript, CSS and HTML
+What Will Put You Ahead
+2+ years of experience with .NET technologies
+3+ years of experience with SQL Server objects, including:
+Databases
+Tables
+Procedures
+Functions
+Degree in Computer Science/MIS, Engineering, or equivalent
+Experience with developing in the following:
+Web Services or APIs
+REST protocol
+XML and JSON formats
+WCF
+Experience with Cloud Computing
+Containerization and Virtualization
+Infrastructure as Code (Helm Charts, YAML, CloudFormation, or similar tools)
+AWS technology stack
+EC2 Instances &amp; Volumes, S3 Buckets, IAM Policies
+Experience with NgRx Store (Redux pattern)
+Experience with Queuing Technologies (RabbitMQ\Apache-Kafka)
+Experience with Docker
+Experience with WCF
+Experience with Postman
+Experience interacting with service wrappers and data sources in a UI
+Experience with Transportation or Logistics Applications
+Experience with software design patterns and software development methodologies.
+Experience with testing frameworks (Jasmine &amp; karma, Jest, mocha)
+Our goal is for each employee, and their families, to live fulfilling and healthy lives. We provide essential resources and support to build and maintain physical, financial, and emotional strength - focusing on overall wellbeing so you can focus on what matters most. Our benefits plan includes - medical, dental, vision, flexible spending and health savings accounts, life insurance, ADD, disability, retirement, paid vacation/time off, educational assistance, and may also include infertility assistance, paid parental leave and adoption assistance. Specific eligibility criteria is set by the applicable Summary Plan Description, policy or guideline and benefits may vary by geographic region. If you have questions on what benefits apply to you, please speak to your recruiter.
+At Koch companies, we are entrepreneurs. This means we openly challenge the status quo, find new ways to create value and get rewarded for our individual contributions. Any compensation range provided for a role is an estimate determined by available market data. The actual amount may be higher or lower than the range provided considering each candidate’s knowledge, skills, abilities, and geographic location. If you have questions, please speak to your recruiter about the flexibility and detail of our compensation philosophy.
+For this role, we anticipate paying $90,000 - $120,000 per year. This role is eligible for variable pay, issued as a monetary bonus or in another form.
+Equal Opportunity Employer.
+Except where prohibited by state law, all offers of employment are conditioned upon successfully passing a drug test.
+This employer uses E-Verify. Please visit the following website for additional information: www.kochcareers.com/doc/Everify.pdf</t>
+  </si>
+  <si>
+    <t>Infinity Quest</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Infinity-Quest/jobs/Chao-Engineer-8b348fa97f8430a4?fccid=8a1252dc7db432f1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:48</t>
+  </si>
+  <si>
+    <t>Job Description
+Role
+Workplace Investing (WI) is seeking a Site Reliability Engineering (SRE) Chaos Engineering Contractor with 10+ years of industry experience.
+We are looking for a Chaos Engineering lead who combines strategic thought leadership skills, a strong development &amp; automation background and sound business judgment. As a Chaos Engineering Lead, you will actively contribute to the day-to-day planning, design, execution, and reporting of chaos testing. You will also bring industry experience and “outside in” thought leadership to discover new opportunities, drive efficiencies in testing and to influence future Chaos Engineering standards and best practices.
+This is an exciting opportunity to join a passionate SRE Centre of Excellence (COE) team who are dedicated to providing a truly predictable customer experience. Under times of market volatility and high volumes, there is an increased expectation of a consistent service level. In WI, we strive to meet this expectation by building reliability into our ecosystem. This will be achieved though defining &amp; implementing practices in Resiliency Engineering, Automation, Observability &amp; Chaos Testing while also engraining a proactive Chaos Culture that thinks reliability first design.
+Expertise and Skills Required
+Proven track record performing chaos testing to build confidence in the system's capability to withstand turbulent conditions in production
+Possess an architectural mindset with proven ability to review architecture to derive Chaos Strategy and expose vulnerabilities.
+Experience working with standalone applications and across E2E Customer Transactions (multi app)
+Possess an automation mentality to drive scalable Chaos approaches
+Hands on Experience with Cloud technologies (AWS/Azure)
+Excellent Java and Groovy Shell scripting skills.
+Proven Hands-on experience working with modern container services (Docker/Kubernetes)
+Proven Hands-on experience working with Web Services and Databases
+Strong understanding of CI/CD Engineering
+Strong understanding of Quality Engineering
+Proven use of Chaos engineering tools (e.g. Gremlin)
+Strong understanding of Performance testing tools
+Strong understanding of Observability tooling (e.g. Datadog, Grafana, Kibana)
+Strong understanding in API testing tools (SoapUI, Postman, Soatest)
+Understanding of Agile Methodology
+Behavioral
+Thought leadership and Research capabilities
+Ability to evaluate and propose best-of-breed tools and engineering best-practices
+Deeply self-motivated with the ability to work independently, coordinating activities within cross-regional and multi-functional teams
+Ability to deal with ambiguous situations
+A passion for excellence, innovation, and teamwork; eager to learn and adapt every day
+Proven track record to quickly learn, adapt and thrive in a fast paced, dynamic and deadline driven environment
+Excellent Communication Skills
+Preferred
+Experience in AI/ML
+Expertise in Angular and Python
+Job Type: Full-time
+Pay: $80.00 per hour
 Schedule:
-8 hour shift
 Monday to Friday
-On call
-Weekend availability
-Supplemental Pay:
-Commission pay
+Work Location: Remote</t>
+  </si>
+  <si>
+    <t>Software Engineer Intelligent Automation</t>
+  </si>
+  <si>
+    <t>Transflo</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Transflo/jobs/Software-Engineer-Intelligent-Automation-08e27cc202a21d6d?fccid=3836011c1bb31896&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:50</t>
+  </si>
+  <si>
+    <t>Transflo is committed to building a culture where all employees can bring their best to work, where all employees feel valued, respected, and have a sense of belonging; Transflo embraces diversity and encourages all candidates that are qualified for this position to apply.
+As the Intelligent Automation Integrations Software Engineer, you will help drive the strategy for integrations of information and images between customer and vendors to facilitate the introduction and processing of digitized documents and accompanying information into the Transflo Intelligent Automation ecosystem. This role will be responsible for the evaluation of requirements, establishment of standards for development and producing the best-in-class enterprise solutions.
+.
+Job Responsibilities
+· General programming and development proﬁciencies experience
+· SQL, MongoDB, GraphQL &amp; Data Modeling
+· Fundamental understanding and intermediate knowledge of Python, C#, HTML, JavaScript, React Native and TypeScript programming language
+· Strong knowledge of object-oriented design, coding, and test patterns
+· Knowledge of development within Cloud solutions hosted in AWS.
+· Knowledge of Linux based application support and installation procedures
+· Workﬂow design and business process management documentation experience
+· Familiarity with system integration methodologies such as application programming interfaces (API), XML, EDI, database querying, etc
+· Understanding of API &amp; Web Service interaction / development fundamentals
+· An understanding of cloud native services &amp; micro services
+· Adhere to all department and company policies
+· All other duties as required
+Qualifications
+· Bachelors’ Degree preferred with 3-5 years exp.
+· Experience in Machine Learning and Intelligent Automation to include OCR Technologies is a plus.
+· Experience in developing applications utilizing Python Programming Language.
+· Experience in developing applications utilizing C# and the .Net Framework.
+· Experience in database development including SQL Server , Oracle, MongoDB and GraphQL
+· Experience with Java, JavaScript, SOAP, Rest API
+· Hands on experience with data integration, API integration code development, and complex integration projects
+· Experience with information security from a systems development perspective
+· Knowledge of web security principles and mitigation for common vulnerabilities
+· Experience in utilizing API Testing tools such as SOAP UI, Katalon, Postman etc..
+· Experience Ingesting and Creating Web API Endpoints
+· Experience developing in a high-volume enterprise level environment
+· Working knowledge of development utilizing Micro Services in Linux and/or Windows.
+Job Type: Full-time
+Pay: $150,000.00 per year
+Schedule:
+Monday to Friday
+Application Question(s):
+Will you now, or in the future, require sponsorship for employment visa status (e.g. H-1B visa status)?
 Experience:
-Dispatching: 1 year (Preferred)
-Sales: 1 year (Preferred)
+Agile: 2 years (Preferred)
+Python: 2 years (Preferred)
+APIs: 2 years (Preferred)
+Microservices: 2 years (Preferred)
+GraphQL: 2 years (Preferred)
+JSON: 2 years (Preferred)
+REST: 2 years (Preferred)
+Web services: 2 years (Preferred)
+React Native: 2 years (Preferred)
+C#: 2 years (Preferred)
 Work Location: Remote</t>
   </si>
   <si>
-    <t>Software Development Engineer in Test (SDET)</t>
-  </si>
-  <si>
-    <t>Icanio Technologies Inc</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/Icanio-Technologies-Inc/jobs/Software-Development-Engineer-Test-18eb5666eead2a43?fccid=bc59cbe263533186&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Posted
-1 day ago</t>
-  </si>
-  <si>
-    <t>2022/04/07 13:36:14</t>
-  </si>
-  <si>
-    <t>Language : Any Programming Languages
-Framework : Nightwatch,BDD,Cucumber
-Tools : Jira,Jenkins,Zephyr Scale
-Experience : 5+ Years
-Roles and Responsibilities:
-Perform Mobile Automation Testing and Web Automation Testing
-Estimate testing tasks and work independently
-Create and maintain automated test cases, execute, analyse and report failures
-Understand and setup Continuous integration process
-Gather the testing requirements from business and engineering team
-Create TestPlans and TestReports
-Developing and executing functional UI and Rest API automated tests
-Report on test coverage and execution through visual aids
-Experiences in different automation frameworks like POM, BDD etc and its implementation
-Knowledge in agile process and cross browser automation
-Communicate with product teams stakeholders on testing status timelines.
-Skillset:
-5+ years of testing development experience.
-3-4 years’ experience in writing automation tests using Java Selenium using testing frameworks like TestNG or Junit and Night watch.
-Hands on experience on
-Cucumber BDD framework Perfecto Sauce labs Rest Assured.
-Git Gradle Maven.
-Must have Cross browser automation and API testing experience
-Experience working in
-Test management tools like Jira, Zephyr Scale.
-Continuous Integration Continuous Delivery CI CD model including Git and CI pipeline automation tools like Jenkins
-Working knowledge of source control tools.
-Job Type: Contract
-Salary: $30.00 - $45.00 per hour
-Schedule:
-8 hour shift
-Day shift
-Monday to Friday
-Education:
-Bachelor's (Preferred)
-Experience:
-Nightwatch.js: 5 years (Preferred)
-Selenium: 5 years (Preferred)
-Test automation: 5 years (Preferred)
-Cucumber BDD: 5 years (Preferred)
-Jenkins: 3 years (Preferred)
-Work Location: Remote</t>
-  </si>
-  <si>
-    <t>Principal SDET (Subscriptions &amp; Invoices) (Remote)</t>
-  </si>
-  <si>
-    <t>Chargebee</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=00c1777889655dac&amp;fccid=df08fdaba67fac7c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>2022/04/07 13:36:18</t>
-  </si>
-  <si>
-    <t>Chargebee is a subscription billing and revenue management platform powering some of the fastest-growing brands around the world today, including Calendly, Hopin, Pret-a-Manger, Freshworks, and others. Thousands of SaaS and subscription-first businesses process over $4B in revenue every year through the Chargebee platform.
-Headquartered in San Francisco, USA, our 1000+ team members work remotely and in micro-offices throughout the world, including India, the Netherlands, Paris, Spain, Australia, and the USA. Chargebee has raised over $105 million in capital and is funded by Accel, Tiger Global, Insight Partners, and Steadview Capital. And we’re on a mission to push the boundaries of subscription revenue operations. Not just ours, but every customer and prospective business on a recurring revenue model.
-We consider the Principal QA Engineer role essential to solving this mission in order to meet our quality requirements.
-What you will be doing
-Provide technical support in QA activities.
-Analyze and troubleshoot QA related issues in a timely fashion.
-Ensure that project / feature is delivered within allotted timelines and budget.
-Review project deliverables and ensure they meet quality standards.
-Review and recommend improvements to existing QA processes.
-Execute test plans and review and diagnose test failures.
-Develop new testing tools and processes to achieve desired QA goals.
-Implement continuous process improvements to enhance testing efficiency.
-Maintain the automated test environment and perform functional and stress testing.
-Analyze test results and perform bug fixing activities.
-Maintain QA documentations and generate test reports for management.
-Provide support in design, development and production phases of projects.
-Determine project quality requirements and perform quality planning activities.
-What you should have
-7+ years of experience in Software Quality Assurance.
-Solid understanding of OOPs languages (Java).
-Strong hands-on with Java, Selenium and related Automation frameworks.
-Experience with various tool selection, implementation and execution similar to Selenium, Rest Assured, Cucumber, Jenkins, Git.
-Experience designing and maintaining environments for automation tests including monitors.
-Ability to work in a fast paced, delivery oriented environment.
-Strong analytical skills with the ability to define problems, collect data, establish facts, and draw valid conclusions.
-Efficient note-taking, documenting, and typing skills required.
-Be able to independently research issues using existing documentation (specifications and user manual).
-Proven interpersonal, analytical, attention to detail/strategy, and creative problem-solving skills.
-The ability to work on multiple projects and set priorities.
-Excellent written and oral communication skills.
-Highly self-motivated and directed.
-Strong customer service orientation.
-Experience working in a team-oriented, collaborative environment.
-Exposure in JavaScript, Performance testing, Docker and security testing would be a plus.
-Why should you join the world-class Quality Engineering team?
-You share our passion for quality and reliability and have a clear customer focus.
-You are enthusiastic and possess the talent and if you are willing to accept the challenge, opportunities will automatically come your way.
-It goes without saying that you are capable, motivated and pragmatic.
-If you want to work for a company that gives you the autonomy to explore and implement new ideas.
-A highly collaborative environment that fosters team spirit and cooperation across the business, you will succeed here.
-What makes us who we are:
-We are Globally Local: With a diverse team across four continents, and customers in over 60 countries, you get to work closely with a global perspective right from your own neighborhood.
-We value Curiosity: We believe the next great idea might just be around the corner. Perhaps it’s that random thought you had ten minutes ago. We believe in creating an ecosystem that fosters a desire to seek out hard questions, and then figure out answers to them.
-Customer! Customer! Customer!: Everything we do is driven towards enabling our customers’ growth. This means no matter what you do, you will always be adding real value to a real business problem. It’s a lot of responsibility, but also a lot of fun.
-If you resonate with Chargebee, have a monstrous appetite for curiosity, an insatiable urge to learn and build new
-things, we’re waiting for you!
-Come be a part of the Chargebee tribe!
-Chargebee might be the opportunity you’re looking for
-If you’re interested in how subscription businesses can get more efficient.
-If you’re hungry to give and receive feedback, fully understanding that challenging perspectives are the only way that you can grow.
-If you can bring empathy to problem solving.
-If this sounds interesting but you’re not sure you'll tick all the boxes, apply anyway! There’s tons of room to grow at Chargebee.</t>
-  </si>
-  <si>
-    <t>Highly Paid Inside Sales Associate for a Home Buying Company</t>
-  </si>
-  <si>
-    <t>I Will Buy House</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/I-Will-Buy-House/jobs/Highly-Paid-Inside-Sales-Associate-Home-Buying-Company-f9d99373c49f9b62?fccid=bbdea6ba17a3f16a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Posted
-Today</t>
-  </si>
-  <si>
-    <t>2022/04/07 13:36:22</t>
-  </si>
-  <si>
-    <t>This is not your average inside sales position! We are looking for motivated rockstars who can convert expensive leads (leads are $400+) into appointments that our closers sign. The earning potential is limitless because commissions are uncapped, and the Washington State market is hot, so the sky is the limit!!) If you are driven and motivated, you will easily earn up to $60,000+ per year.
-This is a remote work-from-home position; you'll be joining an awesome team of three other high-performing appointment setters and two closers.
-We have two of the best closers in the industry, so you can rest assured that your set appointments will be turned into closed deals. They're hungry and usually work nights and weekends to get deals signed (our top closer last year brought $2 million in revenue.)
-WHAT YOU'LL DO
-Our company has several inbound marketing channels, so the Inside Sales Associate (internally we refer to this position as Home Buying Associate, or HBA) is one of the first points of contact when a seller reaches out to us because they're interested in selling their home. The HBA will have a great conversation with the seller to build rapport, find out a bit about their life story and why they're looking to make such a big decision as selling their home, review the home details, gauge the seller's motivation, and ultimately set up an appointment for the seller to speak with the Home Buying Manager (HBM) / closer to sign the contract if it's a good fit.
-QUALIFICATIONS
-- You love talking to people and are interested in the psychology of what makes people tick
-- You're a great conversationalist; you're patient, you put people at ease, and folks open up and trust you easily
-- Sales and closing experience is a major plus
-ESSENTIAL DUTIES AND RESPONSIBILITIES
-Speak with homeowners, build rapport, become best friends, gauge motivation and set the appointment for the seller to speak to our Home Buying Manager (our closers)
-COMPENSATION
-- $2,000 monthly draw + 3% of the assignment fee (the company's revenue) on each closed deal
-- Our average assignment fee (this is our revenue from a closed deal) in Washington State is $33,000 (this year it will be higher because of a new strategy we're using)
-- Commissions are uncapped
-- Potential for annual bonuses when the company meets revenue targets
-WORKING HOURS
-This job is 5 - 6 days per week (you can decide if you'd like to work 5 or 6 days; all of our HBAs work 6 days so that they have more opportunities to set appointments and earn commissions.)
-Sunday - Friday from 8AM - 4:30 PM Pacific Standard Time (PST) - Saturdays off
-OR
-Monday - Saturday from 8AM - 4:30 PM Pacific Standard Time (PST) - Sundays off
-You can decide which schedule works best for you based on your lifestyle or family obligations.
-WHY WORK WITH US?
-- We’re a small family business (28 people and growing!) who cares a lot about our team members and treat them like family, not just a number
-- We are growing rapidly and have significantly increased our revenue year over year since the business started in 2015. 2021 was our best year ever, where we increased revenue by 350% over 2020.
-- You’ll be joining an awesome multicultural team of high performers located in ten countries around the world!
-- We believe in fulfillment in work and in life - we don’t want this to just be a “job” to you. One of our biggest core values, is constant and never-ending growth; we provide coaching and ongoing training for all our team members, and strive to help you find your fulfillment within our business
-- Though we are a sales and marketing business, we do not have a cut-throat nor aggressive work environment. We lead with love, gratitude and motivation so that all our team members are set up for success and happiness
-- You'll be doing something that you know is actually making a difference in people's lives. We help homeowners get rid of problem houses so that they can get the money they need to move on with their lives. Renovating homes and re-selling them on the market ultimately improves the community by cleaning up neighborhoods with once run-down eyesores.
-We are I Will Buy House, one of the top home buying companies in Seattle, Washington. We have been in business for 7 years; you can check out our website at www.iwillbuyhouse.com
-Job Types: Full-time, Contract
-Pay: $2,000.00 - $5,000.00 per month
-Benefits:
-Work from home
-Schedule:
-8 hour shift
-Day shift
-Monday to Friday
-Weekend availability
-Supplemental Pay:
-Bonus pay
-Commission pay
-Experience:
-Appointment Setting: 1 year (Preferred)
-Customer service: 1 year (Preferred)
-Inside sales: 1 year (Preferred)
-Work Location: Remote</t>
-  </si>
-  <si>
-    <t>Salesforce Developer</t>
-  </si>
-  <si>
-    <t>Apptad Inc</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/Apptad-Inc/jobs/Salesforce-Developer-327c470b00f183f1?fccid=ef27ca64113c0839&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>2022/04/07 13:36:27</t>
-  </si>
-  <si>
-    <t>Job Title: Sales Force Admin
-Job Location: Dallas,TX
-Job Duration: Long-Term
-Job Description:
-Minimum 6 years Salesforce development experience
-Expertise in understanding the Salesforce.com, Sales Cloud, Service Cloud and other Salesforce product areas.
-Should have strong technical capabilities and be able to contribute towards programmatic solutions on Salesforce platform, including Apex, VisualForce, Lightning components, LWC, Test class development and coverage.
-Salesforce Admin skills (specially designing UI screens /cases/security profiles)
-Salesforce workflows/Flows experience
-Working experience with Test Automation including Integration, Regression and Performance testing primarily using Provar. Desired to have experience using frameworks like, Jbehave, Cucumber, Fitnesse, REST Assured, Jmeter, Selenium Web Driver, Wire Mock etc.
-Proficiency with Salesforce object model testing using SOQL
-Proven experience with DevOps best-practices and tools (Flosum, Jenkins, Maven, GIT, Stash, SFDX, Second Generation Managed Packaging)
-Professional software development experience in a diverse set of distributed application development and middleware technologies such REST Web Services, J2EE, PLSQL, HTML, Java Script, Spring with a focus on Test Driven Development
-Good understanding of object oriented and functional programming design along with software engineering practices for the full software development life cycle, including coding standards, code reviews, source control management, build processes, testing and operations
-Experience in delivering software in the Agile environment
-Desired/Good to have Skills:
-Experience with distributed systems and design pattern is desired
-Experience with cloud platforms like PCF and AWS is desired
-Experience with BDD frameworks using Jbehave/Cucumber is desired
-Familiarity with user interface technologies (HTML5, CSS3, JQuery, JSON, Ajax, Angular.js) is a plus.
-Job Types: Full-time, Contract
-Salary: $46.00 - $91.00 per hour
-Schedule:
-8 hour shift
-Day shift
-Holidays
-Monday to Friday
-Experience:
-Systems &amp; Applications Engineers &amp; Analysts: 1 year (Preferred)
-Work Location: Remote</t>
+    <t>US_East | Software Developer - Application Server Technologi...</t>
+  </si>
+  <si>
+    <t>Remote in Plymouth Meeting, PA</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=5899e23b32c6fc77&amp;fccid=2c2ddbdad05f41c6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:52</t>
+  </si>
+  <si>
+    <t>Job Description
+Description:
+Need R2D2 # 12109428
+Possible 3 Month CTH | No Fees | Do Not Re-Post | Confidential
+Submit candidates under their legal name and use only Capgemini template
+IMPORTANT INFORMATION:
+Role: Software Developer
+Work Location Plymouth, MA (Remote)
+Rate: xxxx/hr AI
+Please send it with this information
+Legal name:
+Location (City and State):
+Relocate?
+Rate:
+Availability:
+Phone #:
+Mobile#:
+Email address:
+Visa type:
+Hiring Status:
+If the resource has a visa, what company owns it?
+Are you working directly with the contractor’s visa holder?
+JOB DESCRIPTION:
+Responsibilities
+Responsible for developing and customizing customer Slack and Collaboration work spaces.
+Serve as our Python developer resource for Slack Custom Apps, Bot development, Slack Admin Tool development using Slack APIs, and work through Slack Development initiatives (Required)
+Represent, Setup, Monitor our needs for AWS to host Slack Custom Apps
+Experience with AWS Server-less computing, Lambda Experience (Required)
+Deep dive, plan, and always thinking how we can improve Collaboration and SaaS Integrations
+Be able to THINK OUTSIDE the box
+Be able to visually map and document technical solutions
+Be able to help solution the Identified and communicated gaps between current and desired end states of Slack
+Work with users to ensure consistent performance
+Be a trusted support and escalation point for technical issues
+Assist with delivery management processes and enforcement
+Provide scheduled and ad-hoc demos and trainings of all Slack, Custom Slack Apps and Workflow, as well as other digital workplace type Tools
+Communicate and collaborate with internal/external teams
+Monitor and help with Service Now slack escalation queues
+Qualifications
+5+ years of experience with deep hands-on expertise with SaaS, and Slack. While being able to help support 3rd party add-ons (M365, Zoom, Jira, Confluence, Lucid Chart and Lucid Spark, etc.) (Required)
+Slack Admin or Slack Developer Certifications preferred with strong Python capability (Required)
+Experience with AWS (Required)
+Process oriented mindset. Good experience in the enablement of enterprise-level processes using Digital workplace tools specifically Slack Admin, Slack Workflows, Slack Forms, and Slack APPs and APIs.
+Experience with configuring and supporting integration using development tools i.e. Python, PowerShell, Java Script, and Postman. Experienced Python developer resource for Slack Custom Apps, Bot development, Slack Admin Tool development using Slack APIs, and work through Slack Development initiatives (Required)
+Knowledge of software development technologies, processes, and tools (i.e., Agile software development)
+Knowledge of web services / RESTful APIs (Required)
+Understanding of networking and internet protocols, including TCP/IP, DNS, SMTP, HTTP and distributed networks.
+Database experience, including knowledge of SQL and NoSQL models. (Required)
+Understanding of cloud security models and API security models. (Required)
+Conceptual and practical understanding of SDLC, ITIL and Agile Frameworks
+Technical understanding of common networking terms and tools
+Previous experience working in a dynamic and agile environment
+Able to work independently with minimal guidance in a rapidly changing environment
+Ability to manage multiple clients and deliverables at any given time through effective time-management and planning
+Demonstrate good interpersonal skills and communication, both written and spoken
+Strong executive presence, facilitation skills, drive for results, attention to quality and detail, and a collaborative attitude
+Good work ethic and the ability to work with diverse teams across different time zones
+Strong ability to multi-task and adapt to changing priorities
+Bachelor' s degree required. Extensive experience administering Slack
+Position will be fully remote
+ERM – Joaquin Zamora | Capgemini |North America
+Tel.: +1 888-229-2961 Ext 13578
+*************</t>
+  </si>
+  <si>
+    <t>Software Test Engineers (4)</t>
+  </si>
+  <si>
+    <t>Visionary Integration Professionals LLC</t>
+  </si>
+  <si>
+    <t>Remote in Boston, MA 02111</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=0981526fbc89e1e8&amp;fccid=518364fda8bd0db5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:54</t>
+  </si>
+  <si>
+    <t>Visionary Integration Professionals (VIP) provides industry-leading management consulting, system integration, and technology deployment solutions. VIP helps its clients strengthen mission outcomes by combining deep industry specialization, agility to adapt as needed, and an unwavering commitment to client satisfaction. VIP brings expertise in how to deploy systems that align people, processes, and technology to accelerate strategic change and to deliver business results in partnership with its clients. Since 1996, VIP has worked with over 1,200 public sector and commercial clients. For more information, visit https://trustvip.com.
+Join VIP: A strategic approach to accelerate your career! This is a remote role based at the client site in Boston, MA.
+The STE will be a key individual contributor to the Digital Experience shared services team. Responsible for defining and/or validating testing strategies for product teams. Primary responsibilities include, providing guidance in the creation of standard test environments, unit &amp; UI tests/plans, and test automation scripts. Provide functional and regression level testing for iOS, Android, API, and Web Applications.
+The STE will develop and maintain automated Test Scripts as well as execute automated functional and regression test cases. The STE will work closely with developers, product owners, test leads, engineers, and team members to identify areas and methods to help drive testing efficiencies and expand test coverage and increase product reliability.
+The STE will provide test estimates, record, track and report defects to depict the status of the sprint and/or system stability. Must be highly motivated, self-directed with a keen attention to detail.
+What great looks like in this role:
+Our ideal STE candidate is team-oriented, possesses excellent communication skills, is energized about automation, and has championed the cause in previous experiences. You like to learn new things all the time and enjoy solving problems on a regular basis.
+You demonstrate a collaborative approach to working with others while utilizing feedback to regularly contribute to the team’s delivery of high quality solutions with speed and agility. The flat leadership structure, the opportunity for flexibility within roles, and development into other areas are core reasons most people desire to work in Digital Experience at MassMutual.
+Objectives of this role:
+For defining and/or validating testing strategies for product teams. The STE will provide test estimates, record, track and report defects to depict the status of the sprint and/or system stability. Partnering with business stakeholders across the team, as well as experts in other areas including Data Science to achieve these goals. Learn and master new and emerging technologies and take initiative to offer technical direction and creative solutions.
+Daily and monthly responsibilities:
+Providing guidance in the creation of standard test environments, unit &amp; ui tests/plans, and test automation scripts.
+Providing functional and regression level testing for iOS, Android, API, and Web Applications.
+Executing automated functional and regression test cases as well as develop and maintain automated Test Scripts.
+Work closely with developers, product owners, test leads, engineers, and team members to identify areas and methods to help drive testing efficiencies and expand test coverage and increase product reliability.
+Putting testing on the behalf of the users first and developers second
+Developing Gherkin Syntax to build out user scenarios
+Developing Ruby Methods to automate Gherkin Syntax identified
+Contributing to the Page Object Model Frameworks
+Continuously refactoring Ruby Methods and Page Object Models to drive further testing efficiencies
+Identifying, acquiring and managing all test data required for testing
+Assisting with running manual test execution in instances where tests can’t be automated when the need arises
+Providing automation test coverage metrics
+Participating in all agile ceremonies
+Continuously developing new skills to improve testing and automation capabilities of products
+Basic Qualifications:
+2 years of hands-on experience with Selenium, Appium or Watir
+2 years of hands-on experience with Cucumber
+2 years of hands-on experience with Page/Screen Object Models
+2 years of hands-on experience with Ruby, Javascript, Java or Python
+2 years of hands-on experience with Postman or SoapUI
+2 years of hands-on experience with Containerization
+Bachelor’s Degree Required in Math or Computer Science or equivalent quantitative field
+Preferred Qualifications:
+5 years of QA testing experience
+3 years of hands-on experience using manual and automated Test Tools (i.e Selenium, Watir, Cucumber, Appium, Postman, SoapUI, Jenkins, Jira, GitHub, Zephyr)
+Experience testing RESTful services is a plus
+Experience with CI/CD and Agile development
+Please note this job description is not designed to cover or contain a comprehensive listing of activities, duties or responsibilities that are required for this job. Duties, responsibilities and activities may change at any time with or without notice.</t>
+  </si>
+  <si>
+    <t>Software Engineering Manager (Remote)</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=9ce9cf1a9089803c&amp;fccid=fc68da685e8aa986&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:55</t>
+  </si>
+  <si>
+    <t>Piper Companies is seeking a Software Engineering Manager for a fulltime, remote opportunity for a growing technology organization. The Software Engineering Manager will lead the development of enterprise software products, manage day-to-day development activities, and collaborate with Product teams to translate and satisfy technical and business requirements.
+Responsibilities of the Software Engineering Manager:
+Oversee and lead the entire software development lifecycle, utilizing C#/ASP.Net/SQL Tech Stack
+Translate complex technical requirements and strategies for defining, developing, and delivering quality products to stakeholders
+Support and grow development team through mentorship, hiring, and conducting performance reviews for team members
+Maintain strong communication with senior leadership throughout project lengths
+Qualifications of the Software Engineering Manager:
+6 - 8+ years of experience in software development
+3+ years of experience in a Manager or Scrum Master role in an Agile environment
+Strong experience utilizing ASP.Net, C#, REST APIs, .Net Core, etc. for web app or enterprise software development
+Must have strong understanding of REST APIs and microservices
+Experience with DevOps or Cloud technologies is preferred, ex: Docker, Kubernetes, AWS Cloud, Jenkins, Maven, GCP, Azure, etc.
+Must hold U.S. citizenship or green card visa.
+Compensation of the Software Engineering Manager:
+Salary: $140,000 - $165,000 annually
+Comprehensive Benefits: Medical, dental, vision, PTO, holiday, 401k, etc.
+Keywords: Scrum Master, CSPO, Certified Product Owner, Team Lead, C#, ASP.Net, VB.Net, .Net Core, REST APIs, React, Javascript, ERP, enterprise resource management, mysql, postgres, github, ERP integration, app development, App Development, Web App, cloud solutions, cloud engineering manager, fintech, financial ERP, fulltime, direct hire, direct placement, permanent, WFH, work from home, Mid-Level, Senior, remote engineering manager, remote software manager, Continuous Integration/Continuous Deployment, Enterprise software development jobs, web application developer, Postman, Apache, REST, SOAP, Web Service Development, health, dental, vision, retirement, benefits</t>
+  </si>
+  <si>
+    <t>Senior IT Quality Assurance Analyst</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>Remote in Kalispell, MT 59901</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=f59a5fdc466bc69e&amp;fccid=8881f7f9e22de728&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:57</t>
+  </si>
+  <si>
+    <t>Victor Insurance Managers Inc. (https://www.victorinsuranceus.com/), a subsidiary of Marsh, is the world's oldest and largest underwriting managers of specialty insurance, professional liability, and risk management programs. Our expertise lies in evaluating risks, implementing program marketing, developing, executing risk management activities, and servicing accounts on behalf of our insurance company partners. We then distribute these products through our distribution network of licensed brokers.
+Torrent Technologies is a Victor Company and is the leading flood insurance administrator in the US. Its integrated suite of business software platforms along with customer-focused service and support solutions have revolutionized the flood insurance landscape. Torrent is recognized for our deep flood insurance expertise and advanced technology capabilities. We provide market leading service and administration to Write Your Own (WYO) insurance companies and agents including direct access to both the National Flood Insurance Program (NFIP) and private insurance products.
+Torrent Technologies has an opening for a Senior IT Quality Assurance Analyst to be located in the Kalispell, MT office or remote:
+Senior IT Quality Assurance Analyst is responsible for managing the creation, execution and maintenance of both manual and automated tests. In this role you will take part in the analysis and breakdown of new user stories and also play a key role in the agile estimation process. The Senior Analyst participates in software release activities as well as the management of automated regression tests and may assist with research and analysis of triage tickets. The Senior IT Quality Assurance Analyst makes an impact as a seasoned, professional individual contributor, ready to manage projects, work independently, help teammates thrive and collaborate with stakeholders across the company.
+What can you expect?
+To assist with key development initiatives that have a direct impact on ensuring our systems are compliant per NFIP (National Flood Insurance Program) regulation.
+You will be an integral part of an innovative and passionate team where your ideas will flourish, and you will influence the quality of our systems.
+In the first 30/60/90 days: Focus will be on on-boarding, training and goal setting. Actively participating with the team in agile meetings. Tackle work assignments regularly, be fully integrated into the team and the organization.
+What is in it for you?
+Torrent offers a dynamic, engaging work environment that places a high value on customer service, respect, and quality relationships. We want our hard-working team members to be their best in an atmosphere that encourages the expression of ideas which will contribute to our clients’ and to the company’s success.
+Motivated employees are well rewarded, and Torrent offers competitive benefits including comprehensive medical insurance, and benefits to include health, dental, vision, and 401K.
+Paid Time Off for the things you love to do, holiday and sick time available
+A rewarding career helping others, and a fun and engaging work environment built on team unity
+Training and annual professional goal setting to help advance your skills for career development
+We will count on you to:
+Be responsible for application development testing using both manual and automated testing frameworks
+Conduct load, performance, security, boundary, and positive/negative testing following software development methodology standards
+Utilize a variety of testing tools to including Selenium, Postman, and SQL
+Work as part of a multi-disciplinary delivery team performing all aspects of software development as needed including quality assurance, requirements gathering, and specializing in testing activities
+Resolve issues and make recommendations for improvements and enhancements
+Evaluate system functionality and create test strategies and test cases to assess product quality
+Communicate with members of the IT team on a regular basis and may serve as point of contact
+Perform under minimal supervision and peer accountability on complex assignments
+What you need to have?
+Bachelor’s degree in computer science or equivalent experience is desired
+3 - 5 years of related software testing, quality assurance and testing automation experience
+Superior interpersonal as well as verbal and written communication skills
+Ability to prioritize, plan, organize, and manage multiple tasks efficiently while maintaining a high quality of work product
+Act as a technical resource for other IT Quality Assurance Analysts on the team
+Exceptional system analysis and problem solving skills
+Strong knowledge of Software Testing Methodologies
+Ability to work closely with application developers to ensure proper test coverage
+Technology experience with SQL/MS SQL Server, JSON, Postman, and DevOps, or similar ticketing systems
+US citizenship with the ability to obtain public trust security clearance
+What makes you stand out?
+Insurance domain knowledge strongly preferred
+Concrete understanding of developing and maintaining automated tests using Selenium
+The National US average range for this role is $53,846 - $86,154.The base pay offered will be determined on factors such as experience, skills, training, location, certifications &amp; education. We do not anticipate candidates hired into this role would immediately earn a salary at or near the top end of the range however, such a decision will be dependent on a case by case basis.
+We are excited to offer a competitive total rewards package which includes: health and welfare benefits, tuition assistance, 401K savings and other retirement programs as well as employee assistance programs.
+Marsh is the world’s leading insurance broker and risk adviser. With over 35,000 colleagues operating in more than 130 countries, Marsh serves commercial and individual clients with data driven risk solutions and advisory services. Marsh is a business of Marsh McLennan (NYSE: MMC), the leading global professional services firm in the areas of risk, strategy and people. With annual revenue approaching US $17 billion and 76,000 colleagues worldwide, MMC helps clients navigate an increasingly dynamic and complex environment through four market-leading businesses: Marsh, Guy Carpenter, Mercer, and Oliver Wyman. Follow Marsh on Twitter @MarshGlobal; LinkedIn; Facebook; and YouTube, or subscribe to BRINK.
+Marsh McLennan and its Affiliates are EOE Minority/Female/Disability/Vet/Sexual Orientation/Gender Identity employers.</t>
+  </si>
+  <si>
+    <t>Remote** Lead Infrastructure Engineer</t>
+  </si>
+  <si>
+    <t>TEKsystems</t>
+  </si>
+  <si>
+    <t>Remote in Roseland, NJ 07068</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AuKz8EBO1xHDEL7V2YF9xF3dC_I9B9i-Zw2Jh8clPMK9BxhHDJszxSjQ0vG42C5tO-u1T5zA-cZS9hPqY2CCc2tLGBwUam61VHJ2iFPgk2OyPcvcQKzMzgL--V9MdGAs75Qo5RFQ63TnNFdCI1t4NLk9ayDNSB8bt0MfW6mOEireDCMsjFCR-oOKxNTfGlPG14DgKAp-DycbpKQnL2pHUgMV-xGMoGWZ1Vsn5mmQewmSk2FroSPJQ3C1Yx0Q21Djz-smQOHDOm3M-B_4-k-uAy4eNjoe5ieG5nEP6OfySAWYpRdeYpFgSdktILvNMVd0sa5u9qK0bF9_g7Eg6cJ7Bw5iaHUrVPqTZZsbb9nYFXfCtHVUcu5bd13Cw8y5OjeE9xwUNKQjSPPemU-5EOHDvI1UvgS8-nuplnxM82aEIZ0tL8LL4-NPSnS_c7RLFjP1WF5x-ej5igQv8IIXE5sqVbz56aTXhzM-Jg9-jBkhF1lFUICZ6MXavhypjPTJV9tnzXNov46Ils-6r3i3RVzrbVm5i8puleXyBba7oMb4oadtCdtuDrWUgTr0JEImGqaHLMHjONWnopFE0QhfoV98w546_HZtfnQtx6N_MC-vBSNtIIpDNDglm-ZkuXcvHaot1Fn4eDpnoPGb3W9AQZyBDRI00d03LIZ1bMG1TQKCVrDoesvHLgOX3JHFXEBgUJX_FBhqYa1hZ5u6_-FvbyZvh8gx1Qx6zabh66p5dvTFrJH2nfIvz4ggTo3dgkvHl96ewwwW63vDzohaah79r1kYoav0T1L62SGcSF4BsnthupkLE9G58pRg1fuq-A75_c5iIB2hS2--F2gDrUIMli0gkzOz0Gg5EaV6moOZyX268LvnTQBxq7tRQetPwoghvErH5TGBakgWf8XExBb3TdY3idKFt26VCDcTI=&amp;p=13&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:41:59</t>
+  </si>
+  <si>
+    <t>Equivalent Experience
+Description:
+GETS Middleware Engineering (MWE) is corporate Middleware Engineering and development Team responsible for defining and engineer standards for various middleware technologies used within ADP. The MWE team is also responsible for creating self service tools and providing transparency on services provided - Availability metrics, Compliance scores and API services to consume the middleware services. MWE owns product lifecycle activities such as standard builds, patches, upgrades, migration and code deployments and plays a crucial role in ADP GETS Infrastructure as a code and Resiliency initiatives. Key responsibilities include new client integration, production support for existing footprint of middleware technologies. The candidate will be working with technologies such as MFT (Sterling File Gateway suite of products - including Sterling B2B Integrator, Sterling Secure Proxy, SEAS, Perimeter server), IIB, MQ, Kafka, and the automation/scripting to support a highly resilient environment. The engineer must have the ability to challenge the status quo both technically &amp; operationally. He or she must exhibit both an expert level of knowledge in IBM technologies as well as have a broad understanding on automating standard processes in support of an API driven environment. You will work closely with other groups within the infrastructure organization in order to meet agreed upon delivery timeframes. Should be able to facilitate, manage, negotiate project scope change and scope change controls between various infrastructure teams. Design Experience on Managed File Transfer components specific to IBM technologies (IBM Sterling File Gateway, B2B Integrator) or other secure electronic data transfer protocol software. Hands on experience working with installation, configuration and support. Experience designing MFT platform layout addressing multi regional, multi continental file transfer requirements. Proficient with setting up standards and architecture for Gateway servers Experience working with large managed file transfer implementations with critical SLA bound client files Hands on experience creating MFT partners, configuring routes for various protocols like SFTP, FTP, file system writes In Depth Knowledge and hands on experience with Transfer Protocols, Encryption Technologies, Security Algorithms and Cybersecurity Requirements Hands on experience working with B2B APIs, Design Experience on API exchanges Hands on experience working with IBM control center Hands on experience with Linux shell scripting Hands on experience testing APIs via curl, postman etc., Hands on experience integrating with Siteminder/any other Idp and LDAP Experience working with IBM PEM Experience working with SFG GDHA and Aspera technologies Experience working with AWS, Jenkins, e-tower, ansible Experience working with Kubernetes and container technologies Experience working in java, python, Angular, React JS
+Skills:
+MFT, Team Player
+Top Skills Details:
+MFT,Team Player
+Additional Skills &amp; Qualifications:
+Nice to have - RedHat Fuse/camel experience Kafka working knowledge MQ/IIB working knowledge, Multi instance set-ups and Server level HA IBM PEM experience working with monitoring tools, Splunk etc., OPSWAT knowledge (working and setup) Tomcat/WLP and Redis knowledge (how it works and the setup) WAS (binary builds and troubleshooting)
+Experience Level:
+Expert Level
+About TEKsystems:
+We're partners in transformation. We help clients activate ideas and solutions to take advantage of a new world of opportunity. We are a team of 80,000 strong, working with over 6,000 clients, including 80% of the Fortune 500, across North America, Europe and Asia. As an industry leader in Full-Stack Technology Services, Talent Services, and real-world application, we work with progressive leaders to drive change. That's the power of true partnership. TEKsystems is an Allegis Group company.
+The company is an equal opportunity employer and will consider all applications without regards to race, sex, age, color, religion, national origin, veteran status, disability, sexual orientation, gender identity, genetic information or any characteristic protected by law.</t>
+  </si>
+  <si>
+    <t>Full Stack Developer I</t>
+  </si>
+  <si>
+    <t>FedEx Services</t>
+  </si>
+  <si>
+    <t>Remote in Chalfont, PA
++4 locations</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=871aa2edcbb7530d&amp;fccid=2ae04b97d8829e58&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022/04/08 21:42:00</t>
+  </si>
+  <si>
+    <t>Company: FedEx Services
+Job Title: Full Stack Developer I
+Job Requisition Number: RC500811
+Category: Information Technology
+Pay Type: Exempt
+Locations:
+Collierville, Tennessee 38017
+United States
+Colorado Springs, Colorado 80921
+United States
+Harrison, Arkansas 72601
+United States
+Lakeland, Florida 33801
+United States
+Chalfont, Pennsylvania 18914
+United States
+Colorado Residents Only – Compensation: Monthly Salary $4862.82 - $6989.73
+The estimate displayed represents the typical salary range or starting rate of candidates hired in Colorado. Factors that may be used to determine your actual salary may include your specific skills, your work location, how many years of experience you have, and comparison to other employees already in this role. This information is provided to applicants in accordance to the Colorado Equal Pay for Equal Work Act.
+SPONSORSHIP FOR THIS POSITION IS NOT AVAILABLE FOR NEW HIRES
+Job Summary:
+Under close supervision, designs, codes, tests and deploys software in all layers of the development life cycle. Provides the necessary documentation.
+Minimum Qualifications:
+Bachelor's Degree/equivalent in computer science, engineering, or information systems and/or equivalent formal training or work experience. A related advanced degree may offset the related experience requirements.
+Skills/Knowledge, Considered a Plus:
+Spring / SpringBoot
+Angular / Ionic
+Java
+Javascript / Typescript
+Docker
+Cloudbees Jenkins &amp; FLow
+Gradle
+Postman / Swagger
+GitLab
+Nexus
+PCF / PKS
+Data Stores (H2 / Cassandra / Kafka)
+REST services
+Adobe Creative Suite
+Microsoft PowerPoint
+Pairing
+Test Driven Development (TDD)
+XP Lean Agile Experience
+Data Analytics
+Self-starter, comfortable working under tight deadlines
+Domicile Locations Desired:
+Collierville, TN
+Memphis, TN
+Lakeland, FL
+Colorado Springs, CO
+Harrison, AR
+Remote Work:
+Ability to work remotely within the United States may also be available based upon business needs.
+Relocation:
+Relocation assistance may be available based upon business needs.
+Application Instructions/Deadline:
+Upload current copy of Resume (Microsoft Word or PDF) and answer job screening questions by 5:00 PM CST on April 14, 2022.
+Employee Benefits: Medical, dental, and vision insurance; paid Life and AD&amp;D insurance; tuition reimbursement; paid sick leave; paid parental leave, paid vacation, and additional paid time off; geographic pay ranges; 401K with Company match and incentive bonus potential; sales incentive compensation for selling roles.
+FedEx. Where now meets next.
+Our vision is to be the earth's most engaged advocates of connected commerce where open borders, new markets and fair, sustainable practices are the norm for the billions of personal supply chains being managed every day in our always on, mobile-first world. We stand for ease, access and opportunity. We lead purposeful innovation, champion entrepreneurs, advocate free trade and empower humans and their place in the era of autonomy and AI. We fight for our customers, a more sustainable planet and an ethical playing field.
+FedEx inspires its more than 570,000 team members to remain focused on safety, the highest ethical and professional standards and the needs of their customers and communities. FedEx is committed to connecting people and possibilities around the world responsibly and resourcefully, with a goal to achieve carbon-neutral operations by 2040.
+FedEx has been recognized on many different lists both for business success and for being a great employer:
+Fortune "World’s Most Admired Companies" – 2021
+Forbes "Best Employers for Diversity" - 2021
+LinkedIn "Top 100 Companies" - 2021
+TIME "100 Most Influential Companies" - 2021
+World HRD Congress "Best Gender Equality Workplace" – 2021
+InsiderPro ComputerWorld "Best Places to Work for IT" – 2021
+Application Instructions/Deadline:
+Upload current copy of Resume (Microsoft Word or PDF format only) and answer job screening questionnaire by close of business (5:00pm CST) on the date below. If the date below is blank, there is no specified closing date for this requisition.
+FedEx Services is an Equal Opportunity/Affirmative Action employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, gender, sexual orientation, gender identity, national origin, age, genetics disability, or protected Veteran status.
+FedEx Services does not discriminate against qualified individuals with disabilities in regard to job application procedures, hiring, and other terms and conditions of employment. Further, FedEx Services is prepared to make reasonable accommodations for the known physical or mental limitations of an otherwise qualified applicant or employee to enable the applicant or employee to be considered for the desired position, to perform the essential functions of the position in question, or to enjoy equal benefits and privileges of employment as are enjoyed by other similarly situated employees without disabilities, unless the accommodation will impose an undue hardship. If a reasonable accommodation is needed, please contact recruitmentsupport@fedex.com.</t>
   </si>
 </sst>
 </file>
@@ -759,20 +2051,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,19 +2158,19 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -885,25 +2178,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -911,25 +2204,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,25 +2230,649 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
